--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\Spreadsheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926F084E-0566-4E62-80AE-F3F7AB95C55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF589D1-E701-4DA1-A59D-26AFDE5E4441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="181">
   <si>
     <t>Primary</t>
   </si>
@@ -101,478 +101,487 @@
     <t>Orcish</t>
   </si>
   <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>SkyforgeSteel</t>
+  </si>
+  <si>
+    <t>Stalhrim</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>AncientNord</t>
+  </si>
+  <si>
+    <t>AncientNordHoned</t>
+  </si>
+  <si>
+    <t>Dragon Bone</t>
+  </si>
+  <si>
+    <t>Moonstone</t>
+  </si>
+  <si>
+    <t>Chaurus Chitin</t>
+  </si>
+  <si>
+    <t>Leather</t>
+  </si>
+  <si>
+    <t>Malachite</t>
+  </si>
+  <si>
+    <t>Orichalcum</t>
+  </si>
+  <si>
+    <t>Quicksilver</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>Golden</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t>Tanto</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>Katana</t>
+  </si>
+  <si>
+    <t>Shortsword</t>
+  </si>
+  <si>
+    <t>Wakizashi</t>
+  </si>
+  <si>
+    <t>WarAxe</t>
+  </si>
+  <si>
+    <t>Hatchet</t>
+  </si>
+  <si>
+    <t>Mace</t>
+  </si>
+  <si>
+    <t>Club</t>
+  </si>
+  <si>
+    <t>Maul</t>
+  </si>
+  <si>
+    <t>Greatsword</t>
+  </si>
+  <si>
+    <t>DaiKatana</t>
+  </si>
+  <si>
+    <t>Battleaxe</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>LongMace</t>
+  </si>
+  <si>
+    <t>Quarterstaff</t>
+  </si>
+  <si>
+    <t>Battlestaff</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>Crossbow</t>
+  </si>
+  <si>
+    <t>Spectral</t>
+  </si>
+  <si>
+    <t>Ectoplasm</t>
+  </si>
+  <si>
+    <t>Corundum</t>
+  </si>
+  <si>
+    <t>Daedric</t>
+  </si>
+  <si>
+    <t>DawnguardImproved</t>
+  </si>
+  <si>
+    <t>Dwemer</t>
+  </si>
+  <si>
+    <t>DwemerImproved</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>BladeOfSacrifice</t>
+  </si>
+  <si>
+    <t>Bloodscythe</t>
+  </si>
+  <si>
+    <t>BloodskalBlade</t>
+  </si>
+  <si>
+    <t>ChampionsCudgel</t>
+  </si>
+  <si>
+    <t>Chillrend</t>
+  </si>
+  <si>
+    <t>Dawnbreaker</t>
+  </si>
+  <si>
+    <t>Dragonbane</t>
+  </si>
+  <si>
+    <t>DwarvenBlackBowOfFate</t>
+  </si>
+  <si>
+    <t>EbonyBlade</t>
+  </si>
+  <si>
+    <t>Ghostblade</t>
+  </si>
+  <si>
+    <t>GlassBowOfTheStagPrince</t>
+  </si>
+  <si>
+    <t>KahvozeinsFang</t>
+  </si>
+  <si>
+    <t>Keening</t>
+  </si>
+  <si>
+    <t>MehrunesRazor</t>
+  </si>
+  <si>
+    <t>Nettlebane</t>
+  </si>
+  <si>
+    <t>RedEaglesBane</t>
+  </si>
+  <si>
+    <t>RedEaglesFury</t>
+  </si>
+  <si>
+    <t>Soulrender</t>
+  </si>
+  <si>
+    <t>Stormfang</t>
+  </si>
+  <si>
+    <t>Volendrung</t>
+  </si>
+  <si>
+    <t>Windshear</t>
+  </si>
+  <si>
+    <t>Zephyr</t>
+  </si>
+  <si>
+    <t>RuefulAxe</t>
+  </si>
+  <si>
+    <t>Wuuthrad</t>
+  </si>
+  <si>
+    <t>Ebony_Battleaxe</t>
+  </si>
+  <si>
+    <t>Daedric_Dagger</t>
+  </si>
+  <si>
+    <t>Ebony_Dagger</t>
+  </si>
+  <si>
+    <t>Horksbane</t>
+  </si>
+  <si>
+    <t>RustyMace</t>
+  </si>
+  <si>
+    <t>Ebony_Greatsword</t>
+  </si>
+  <si>
+    <t>Daedric_Mace</t>
+  </si>
+  <si>
+    <t>Glass_Sword</t>
+  </si>
+  <si>
+    <t>Silver_Sword</t>
+  </si>
+  <si>
+    <t>Blades_Sword</t>
+  </si>
+  <si>
+    <t>Spectral_Sword</t>
+  </si>
+  <si>
+    <t>Daedric_Sword</t>
+  </si>
+  <si>
+    <t>Ebony_Sword</t>
+  </si>
+  <si>
+    <t>NordHero_Sword</t>
+  </si>
+  <si>
+    <t>Dawnguard_WarAxe</t>
+  </si>
+  <si>
+    <t>Orcish_Warhammer</t>
+  </si>
+  <si>
+    <t>Dawnguard_Warhammer</t>
+  </si>
+  <si>
+    <t>AetherialStaff</t>
+  </si>
+  <si>
+    <t>AncientDawnguardWarAxe</t>
+  </si>
+  <si>
+    <t>AncientDawnguardWarhammer</t>
+  </si>
+  <si>
+    <t>AurielsBow</t>
+  </si>
+  <si>
+    <t>AwakenedBladeOfWoe</t>
+  </si>
+  <si>
+    <t>BladeOfWoe</t>
+  </si>
+  <si>
+    <t>BrokenStaff</t>
+  </si>
+  <si>
+    <t>DragonPriestStaff</t>
+  </si>
+  <si>
+    <t>EyeOfMelka</t>
+  </si>
+  <si>
+    <t>GadnorsStaffOfCharming</t>
+  </si>
+  <si>
+    <t>GoraksTrollGuttingKnife</t>
+  </si>
+  <si>
+    <t>HalldirsStaff</t>
+  </si>
+  <si>
+    <t>HarkonsSword</t>
+  </si>
+  <si>
+    <t>HevnoraaksStaff</t>
+  </si>
+  <si>
+    <t>MaceOfMolagBal</t>
+  </si>
+  <si>
+    <t>MiraaksStaff</t>
+  </si>
+  <si>
+    <t>MiraaksSword</t>
+  </si>
+  <si>
+    <t>NightingaleBlade</t>
+  </si>
+  <si>
+    <t>NightingaleBow</t>
+  </si>
+  <si>
+    <t>RahgotsStaff</t>
+  </si>
+  <si>
+    <t>SanguineRose</t>
+  </si>
+  <si>
+    <t>SildsStaff</t>
+  </si>
+  <si>
+    <t>SkullOfCorruption</t>
+  </si>
+  <si>
+    <t>StaffOfArcaneAuthority</t>
+  </si>
+  <si>
+    <t>StaffOfHagsWrath</t>
+  </si>
+  <si>
+    <t>StaffOfJyrikGauldurson</t>
+  </si>
+  <si>
+    <t>StaffOfMagnus</t>
+  </si>
+  <si>
+    <t>StaffOfRuunvald</t>
+  </si>
+  <si>
+    <t>StaffOfTandil</t>
+  </si>
+  <si>
+    <t>TheLonghammer</t>
+  </si>
+  <si>
+    <t>Wabbajack</t>
+  </si>
+  <si>
+    <t>WabbajackDA15</t>
+  </si>
+  <si>
+    <t>Dwarven_Bow</t>
+  </si>
+  <si>
+    <t>Daedric_Warhammer</t>
+  </si>
+  <si>
+    <t>Dragonbone_Dagger</t>
+  </si>
+  <si>
+    <t>Forsworn_Sword</t>
+  </si>
+  <si>
+    <t>Ebony_Bow</t>
+  </si>
+  <si>
+    <t>Elven_Bow</t>
+  </si>
+  <si>
+    <t>Dwarven_Dagger</t>
+  </si>
+  <si>
+    <t>Silver_Battleaxe</t>
+  </si>
+  <si>
+    <t>Perk</t>
+  </si>
+  <si>
+    <t>Craftsmanship</t>
+  </si>
+  <si>
+    <t>Daedric Smithing</t>
+  </si>
+  <si>
+    <t>Draconic Blacksmithing</t>
+  </si>
+  <si>
+    <t>Dwarven Smithing</t>
+  </si>
+  <si>
+    <t>Ebony Smithing</t>
+  </si>
+  <si>
+    <t>Elven Smithing</t>
+  </si>
+  <si>
+    <t>Glass Smithing</t>
+  </si>
+  <si>
+    <t>Golden Smithing</t>
+  </si>
+  <si>
+    <t>Madness Smithing</t>
+  </si>
+  <si>
+    <t>Orcish Smithing</t>
+  </si>
+  <si>
+    <t>Stalhrim Smithing</t>
+  </si>
+  <si>
+    <t>Advanced Blacksmithing</t>
+  </si>
+  <si>
+    <t>Arcane Craftsmanship</t>
+  </si>
+  <si>
+    <t>Amber Smithing</t>
+  </si>
+  <si>
+    <t>Dark Smithing</t>
+  </si>
+  <si>
+    <t>Divine</t>
+  </si>
+  <si>
+    <t>Skyforge Smithing</t>
+  </si>
+  <si>
+    <t>Silver_Greatsword</t>
+  </si>
+  <si>
+    <t>Steel_Greatsword</t>
+  </si>
+  <si>
+    <t>Glass_Bow</t>
+  </si>
+  <si>
+    <t>Steel_Mace</t>
+  </si>
+  <si>
+    <t>Steel_Warhammer</t>
+  </si>
+  <si>
+    <t>Bound</t>
+  </si>
+  <si>
+    <t>BoundMystic</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Reach</t>
+  </si>
+  <si>
+    <t>Stagger</t>
+  </si>
+  <si>
+    <t>Alikr</t>
+  </si>
+  <si>
+    <t>Boneshaver</t>
+  </si>
+  <si>
+    <t>Alikr_Sword</t>
+  </si>
+  <si>
     <t>Redguard</t>
   </si>
   <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>SkyforgeSteel</t>
-  </si>
-  <si>
-    <t>Stalhrim</t>
-  </si>
-  <si>
-    <t>Steel</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>AncientNord</t>
-  </si>
-  <si>
-    <t>AncientNordHoned</t>
-  </si>
-  <si>
-    <t>Dragon Bone</t>
-  </si>
-  <si>
-    <t>Moonstone</t>
-  </si>
-  <si>
-    <t>Chaurus Chitin</t>
-  </si>
-  <si>
-    <t>Leather</t>
-  </si>
-  <si>
-    <t>Malachite</t>
-  </si>
-  <si>
-    <t>Orichalcum</t>
-  </si>
-  <si>
-    <t>Quicksilver</t>
-  </si>
-  <si>
-    <t>Dark</t>
-  </si>
-  <si>
-    <t>Golden</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Dagger</t>
-  </si>
-  <si>
-    <t>Tanto</t>
-  </si>
-  <si>
-    <t>Sword</t>
-  </si>
-  <si>
-    <t>Katana</t>
-  </si>
-  <si>
-    <t>Shortsword</t>
-  </si>
-  <si>
-    <t>Wakizashi</t>
-  </si>
-  <si>
-    <t>WarAxe</t>
-  </si>
-  <si>
-    <t>Hatchet</t>
-  </si>
-  <si>
-    <t>Mace</t>
-  </si>
-  <si>
-    <t>Club</t>
-  </si>
-  <si>
-    <t>Maul</t>
-  </si>
-  <si>
-    <t>Greatsword</t>
-  </si>
-  <si>
-    <t>DaiKatana</t>
-  </si>
-  <si>
-    <t>Battleaxe</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>LongMace</t>
-  </si>
-  <si>
-    <t>Quarterstaff</t>
-  </si>
-  <si>
-    <t>Battlestaff</t>
-  </si>
-  <si>
-    <t>Bow</t>
-  </si>
-  <si>
-    <t>Crossbow</t>
-  </si>
-  <si>
-    <t>Spectral</t>
-  </si>
-  <si>
-    <t>Ectoplasm</t>
-  </si>
-  <si>
-    <t>Corundum</t>
-  </si>
-  <si>
-    <t>Daedric</t>
-  </si>
-  <si>
-    <t>DawnguardImproved</t>
-  </si>
-  <si>
-    <t>Dwemer</t>
-  </si>
-  <si>
-    <t>DwemerImproved</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>BladeOfSacrifice</t>
-  </si>
-  <si>
-    <t>Bloodscythe</t>
-  </si>
-  <si>
-    <t>BloodskalBlade</t>
-  </si>
-  <si>
-    <t>ChampionsCudgel</t>
-  </si>
-  <si>
-    <t>Chillrend</t>
-  </si>
-  <si>
-    <t>Dawnbreaker</t>
-  </si>
-  <si>
-    <t>Dragonbane</t>
-  </si>
-  <si>
-    <t>DwarvenBlackBowOfFate</t>
-  </si>
-  <si>
-    <t>EbonyBlade</t>
-  </si>
-  <si>
-    <t>Ghostblade</t>
-  </si>
-  <si>
-    <t>GlassBowOfTheStagPrince</t>
-  </si>
-  <si>
-    <t>KahvozeinsFang</t>
-  </si>
-  <si>
-    <t>Keening</t>
-  </si>
-  <si>
-    <t>MehrunesRazor</t>
-  </si>
-  <si>
-    <t>Nettlebane</t>
-  </si>
-  <si>
-    <t>RedEaglesBane</t>
-  </si>
-  <si>
-    <t>RedEaglesFury</t>
-  </si>
-  <si>
-    <t>Soulrender</t>
-  </si>
-  <si>
-    <t>Stormfang</t>
-  </si>
-  <si>
-    <t>Volendrung</t>
-  </si>
-  <si>
-    <t>Windshear</t>
-  </si>
-  <si>
-    <t>Zephyr</t>
-  </si>
-  <si>
-    <t>RuefulAxe</t>
-  </si>
-  <si>
-    <t>Wuuthrad</t>
-  </si>
-  <si>
-    <t>Ebony_Battleaxe</t>
-  </si>
-  <si>
-    <t>Daedric_Dagger</t>
-  </si>
-  <si>
-    <t>Ebony_Dagger</t>
-  </si>
-  <si>
-    <t>Horksbane</t>
-  </si>
-  <si>
-    <t>RustyMace</t>
-  </si>
-  <si>
-    <t>Ebony_Greatsword</t>
-  </si>
-  <si>
-    <t>Daedric_Mace</t>
-  </si>
-  <si>
-    <t>Glass_Sword</t>
-  </si>
-  <si>
-    <t>Silver_Sword</t>
-  </si>
-  <si>
-    <t>Blades_Sword</t>
-  </si>
-  <si>
-    <t>Spectral_Sword</t>
-  </si>
-  <si>
-    <t>Daedric_Sword</t>
-  </si>
-  <si>
-    <t>Ebony_Sword</t>
-  </si>
-  <si>
-    <t>NordHero_Sword</t>
-  </si>
-  <si>
     <t>Redguard_Sword</t>
-  </si>
-  <si>
-    <t>Dawnguard_WarAxe</t>
-  </si>
-  <si>
-    <t>Orcish_Warhammer</t>
-  </si>
-  <si>
-    <t>Dawnguard_Warhammer</t>
-  </si>
-  <si>
-    <t>AetherialStaff</t>
-  </si>
-  <si>
-    <t>AncientDawnguardWarAxe</t>
-  </si>
-  <si>
-    <t>AncientDawnguardWarhammer</t>
-  </si>
-  <si>
-    <t>AurielsBow</t>
-  </si>
-  <si>
-    <t>AwakenedBladeOfWoe</t>
-  </si>
-  <si>
-    <t>BladeOfWoe</t>
-  </si>
-  <si>
-    <t>BrokenStaff</t>
-  </si>
-  <si>
-    <t>DragonPriestStaff</t>
-  </si>
-  <si>
-    <t>EyeOfMelka</t>
-  </si>
-  <si>
-    <t>GadnorsStaffOfCharming</t>
-  </si>
-  <si>
-    <t>GoraksTrollGuttingKnife</t>
-  </si>
-  <si>
-    <t>HalldirsStaff</t>
-  </si>
-  <si>
-    <t>HarkonsSword</t>
-  </si>
-  <si>
-    <t>HevnoraaksStaff</t>
-  </si>
-  <si>
-    <t>MaceOfMolagBal</t>
-  </si>
-  <si>
-    <t>MiraaksStaff</t>
-  </si>
-  <si>
-    <t>MiraaksSword</t>
-  </si>
-  <si>
-    <t>NightingaleBlade</t>
-  </si>
-  <si>
-    <t>NightingaleBow</t>
-  </si>
-  <si>
-    <t>RahgotsStaff</t>
-  </si>
-  <si>
-    <t>SanguineRose</t>
-  </si>
-  <si>
-    <t>SildsStaff</t>
-  </si>
-  <si>
-    <t>SkullOfCorruption</t>
-  </si>
-  <si>
-    <t>StaffOfArcaneAuthority</t>
-  </si>
-  <si>
-    <t>StaffOfHagsWrath</t>
-  </si>
-  <si>
-    <t>StaffOfJyrikGauldurson</t>
-  </si>
-  <si>
-    <t>StaffOfMagnus</t>
-  </si>
-  <si>
-    <t>StaffOfRuunvald</t>
-  </si>
-  <si>
-    <t>StaffOfTandil</t>
-  </si>
-  <si>
-    <t>TheLonghammer</t>
-  </si>
-  <si>
-    <t>Wabbajack</t>
-  </si>
-  <si>
-    <t>WabbajackDA15</t>
-  </si>
-  <si>
-    <t>Dwarven_Bow</t>
-  </si>
-  <si>
-    <t>Daedric_Warhammer</t>
-  </si>
-  <si>
-    <t>Dragonbone_Dagger</t>
-  </si>
-  <si>
-    <t>Forsworn_Sword</t>
-  </si>
-  <si>
-    <t>Ebony_Bow</t>
-  </si>
-  <si>
-    <t>Elven_Bow</t>
-  </si>
-  <si>
-    <t>Dwarven_Dagger</t>
-  </si>
-  <si>
-    <t>Silver_Battleaxe</t>
-  </si>
-  <si>
-    <t>Perk</t>
-  </si>
-  <si>
-    <t>Craftsmanship</t>
-  </si>
-  <si>
-    <t>Daedric Smithing</t>
-  </si>
-  <si>
-    <t>Draconic Blacksmithing</t>
-  </si>
-  <si>
-    <t>Dwarven Smithing</t>
-  </si>
-  <si>
-    <t>Ebony Smithing</t>
-  </si>
-  <si>
-    <t>Elven Smithing</t>
-  </si>
-  <si>
-    <t>Glass Smithing</t>
-  </si>
-  <si>
-    <t>Golden Smithing</t>
-  </si>
-  <si>
-    <t>Madness Smithing</t>
-  </si>
-  <si>
-    <t>Orcish Smithing</t>
-  </si>
-  <si>
-    <t>Stalhrim Smithing</t>
-  </si>
-  <si>
-    <t>Advanced Blacksmithing</t>
-  </si>
-  <si>
-    <t>Arcane Craftsmanship</t>
-  </si>
-  <si>
-    <t>Amber Smithing</t>
-  </si>
-  <si>
-    <t>Dark Smithing</t>
-  </si>
-  <si>
-    <t>Divine</t>
-  </si>
-  <si>
-    <t>Skyforge Smithing</t>
-  </si>
-  <si>
-    <t>Silver_Greatsword</t>
-  </si>
-  <si>
-    <t>Steel_Greatsword</t>
-  </si>
-  <si>
-    <t>Glass_Bow</t>
-  </si>
-  <si>
-    <t>Steel_Mace</t>
-  </si>
-  <si>
-    <t>Steel_Warhammer</t>
-  </si>
-  <si>
-    <t>Bound</t>
-  </si>
-  <si>
-    <t>BoundMystic</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>Reach</t>
-  </si>
-  <si>
-    <t>Stagger</t>
   </si>
 </sst>
 </file>
@@ -925,9 +934,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DAB44D-10D6-48D9-84AA-13B1D653DD7B}">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -941,13 +952,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -959,243 +970,249 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
       <c r="C2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
       </c>
       <c r="H2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
+        <v>-1</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.66666666666666663</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>170</v>
       </c>
       <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>100</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" t="s">
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>62</v>
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>63</v>
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -1204,12 +1221,12 @@
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -1218,161 +1235,152 @@
         <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
-        <v>5</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D18">
-        <v>0.25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" t="s">
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H20" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D21">
-        <v>25</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" t="s">
-        <v>29</v>
+        <v>0.2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
       </c>
       <c r="H21" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1380,129 +1388,129 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" s="1">
-        <v>1.3333333333333333</v>
+      <c r="D23">
+        <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H23" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
         <v>15</v>
       </c>
-      <c r="B24">
-        <v>-1</v>
-      </c>
-      <c r="C24">
-        <v>-1</v>
-      </c>
-      <c r="D24">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E24" t="s">
-        <v>15</v>
-      </c>
       <c r="H24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D25">
-        <v>40</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D27">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="H27" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
         <v>33</v>
       </c>
-      <c r="F28" t="s">
-        <v>15</v>
+      <c r="G28" t="s">
+        <v>33</v>
       </c>
       <c r="H28" t="s">
         <v>158</v>
@@ -1510,27 +1518,30 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
       </c>
       <c r="H29" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1539,70 +1550,70 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
       </c>
       <c r="D31">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>7</v>
+      </c>
       <c r="G32" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H32" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-      <c r="D33">
-        <v>40</v>
-      </c>
-      <c r="E33" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>58</v>
       </c>
       <c r="H33" t="s">
         <v>159</v>
@@ -1610,45 +1621,65 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
-      </c>
-      <c r="F34" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H34" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36">
         <v>-6</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>-7</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>0.25</v>
       </c>
-      <c r="E35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H35" t="s">
-        <v>149</v>
+      <c r="E36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1672,27 +1703,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
         <v>173</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>174</v>
       </c>
-      <c r="D1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>175</v>
-      </c>
-      <c r="F1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G1" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1715,7 +1746,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1738,7 +1769,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1761,7 +1792,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -1784,7 +1815,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -1807,7 +1838,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1830,7 +1861,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1853,7 +1884,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -1876,7 +1907,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -1899,7 +1930,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -1922,7 +1953,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -1945,7 +1976,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -1968,7 +1999,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -1991,7 +2022,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -2014,7 +2045,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -2037,7 +2068,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23">
         <v>16</v>
@@ -2060,7 +2091,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>12</v>
@@ -2083,7 +2114,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26">
         <v>10</v>
@@ -2133,12 +2164,12 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2152,7 +2183,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2166,7 +2197,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2180,7 +2211,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -2194,7 +2225,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -2208,7 +2239,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -2222,7 +2253,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -2236,7 +2267,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -2250,7 +2281,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -2264,7 +2295,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -2278,7 +2309,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -2292,7 +2323,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -2306,7 +2337,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -2320,7 +2351,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -2334,7 +2365,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -2348,7 +2379,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -2362,7 +2393,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -2376,7 +2407,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -2390,7 +2421,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -2404,7 +2435,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -2423,10 +2454,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E600040-C4D1-44DA-89A7-D165F82BA4A4}">
-  <dimension ref="A1:I59"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,41 +2469,41 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
         <v>173</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>174</v>
       </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>175</v>
       </c>
-      <c r="G1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H1" t="s">
-        <v>177</v>
-      </c>
       <c r="I1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2486,10 +2517,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2503,10 +2534,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -2514,10 +2545,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -2534,10 +2565,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -2545,10 +2576,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2562,10 +2593,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -2573,10 +2604,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -2584,35 +2615,29 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>177</v>
+      </c>
+      <c r="B11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11">
+        <v>5000</v>
+      </c>
+      <c r="I11" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>170</v>
-      </c>
-      <c r="I12" t="b">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>-1</v>
-      </c>
-      <c r="E13">
-        <v>5000</v>
+        <v>168</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -2620,104 +2645,113 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
       </c>
       <c r="E14">
-        <v>80000</v>
+        <v>5000</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15">
-        <v>5000</v>
+        <v>80000</v>
       </c>
       <c r="I15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>5000</v>
+      </c>
+      <c r="I16" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" t="b">
-        <v>0</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
-      </c>
-      <c r="D18">
-        <v>-3</v>
-      </c>
-      <c r="E18">
-        <v>80000</v>
+        <v>138</v>
       </c>
       <c r="I18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19">
+        <v>-3</v>
+      </c>
+      <c r="E19">
+        <v>80000</v>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21">
-        <v>5000</v>
-      </c>
-      <c r="I21" t="b">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>99</v>
+      </c>
+      <c r="E22">
+        <v>5000</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -2725,19 +2759,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23">
-        <v>4</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23">
-        <v>1000</v>
+        <v>166</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -2745,60 +2770,66 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>119</v>
+        <v>116</v>
+      </c>
+      <c r="B24" t="s">
+        <v>141</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>1000</v>
+      </c>
+      <c r="I24" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>-8</v>
-      </c>
-      <c r="E25">
-        <v>5000</v>
-      </c>
-      <c r="F25">
-        <v>-0.125</v>
-      </c>
-      <c r="G25">
-        <v>0.05</v>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>-8</v>
+      </c>
+      <c r="E26">
+        <v>5000</v>
+      </c>
+      <c r="F26">
+        <v>-0.125</v>
+      </c>
+      <c r="G26">
+        <v>0.05</v>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" t="s">
-        <v>169</v>
-      </c>
-      <c r="I27" t="b">
-        <v>0</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>142</v>
-      </c>
-      <c r="E28">
-        <v>5000</v>
+        <v>167</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -2806,33 +2837,30 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
-      </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-      <c r="D29">
-        <v>2.5</v>
+        <v>140</v>
       </c>
       <c r="E29">
-        <v>80000</v>
+        <v>5000</v>
       </c>
       <c r="I29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>144</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="E30">
         <v>80000</v>
@@ -2843,10 +2871,13 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>95</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
       </c>
       <c r="E31">
         <v>80000</v>
@@ -2857,60 +2888,63 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>123</v>
+        <v>78</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E32">
+        <v>80000</v>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" t="s">
-        <v>101</v>
-      </c>
-      <c r="I33" t="b">
-        <v>1</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34">
-        <v>5000</v>
+        <v>100</v>
       </c>
       <c r="I34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="B35" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>-4</v>
+        <v>91</v>
       </c>
       <c r="E35">
         <v>5000</v>
       </c>
       <c r="I35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>101</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>-4</v>
+      </c>
+      <c r="E36">
+        <v>5000</v>
       </c>
       <c r="I36" t="b">
         <v>1</v>
@@ -2918,38 +2952,29 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>124</v>
+      </c>
+      <c r="B37" t="s">
+        <v>142</v>
+      </c>
+      <c r="I37" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38">
-        <v>5000</v>
-      </c>
-      <c r="F38">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G38">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="I38" t="b">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39">
-        <v>-3</v>
+        <v>102</v>
+      </c>
+      <c r="E39">
+        <v>5000</v>
       </c>
       <c r="F39">
         <v>7.4999999999999997E-2</v>
@@ -2963,108 +2988,111 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="C40">
-        <v>7</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>80000</v>
+        <v>-3</v>
+      </c>
+      <c r="F40">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G40">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="B41" t="s">
+        <v>145</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>80000</v>
+      </c>
+      <c r="I41" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B45" t="s">
-        <v>102</v>
-      </c>
-      <c r="I45" t="b">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>82</v>
+      </c>
+      <c r="B46" t="s">
+        <v>101</v>
+      </c>
+      <c r="I46" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" t="s">
-        <v>167</v>
-      </c>
-      <c r="I52" t="b">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
-      </c>
-      <c r="D53">
-        <v>-9</v>
-      </c>
-      <c r="F53">
-        <v>0.2</v>
+        <v>165</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
@@ -3072,54 +3100,54 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>104</v>
       </c>
       <c r="D54">
-        <v>5</v>
-      </c>
-      <c r="E54">
-        <v>80000</v>
+        <v>-9</v>
+      </c>
+      <c r="F54">
+        <v>0.2</v>
       </c>
       <c r="I54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>138</v>
+        <v>84</v>
+      </c>
+      <c r="B55" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55">
+        <v>80000</v>
+      </c>
+      <c r="I55" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>86</v>
-      </c>
-      <c r="B57" t="s">
-        <v>104</v>
-      </c>
-      <c r="I57" t="b">
-        <v>0</v>
+        <v>137</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="E58">
-        <v>80000</v>
+        <v>180</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
@@ -3127,12 +3155,29 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B59" t="s">
-        <v>140</v>
+        <v>89</v>
+      </c>
+      <c r="C59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>80000</v>
       </c>
       <c r="I59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>138</v>
+      </c>
+      <c r="I60" t="b">
         <v>0</v>
       </c>
     </row>

--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF589D1-E701-4DA1-A59D-26AFDE5E4441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAE34CC-E7F6-4BC7-9578-7F5A53FCBC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="180">
   <si>
     <t>Primary</t>
   </si>
@@ -93,9 +93,6 @@
   </si>
   <si>
     <t>NordHero</t>
-  </si>
-  <si>
-    <t>Nordic</t>
   </si>
   <si>
     <t>Orcish</t>
@@ -936,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DAB44D-10D6-48D9-84AA-13B1D653DD7B}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,13 +949,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" t="s">
         <v>171</v>
       </c>
-      <c r="C1" t="s">
-        <v>172</v>
-      </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -970,12 +967,12 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -987,10 +984,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1010,15 +1007,15 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1030,15 +1027,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1050,10 +1047,10 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1070,15 +1067,15 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1086,7 +1083,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1094,7 +1091,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -1109,12 +1106,12 @@
         <v>8</v>
       </c>
       <c r="H9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1126,13 +1123,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
       </c>
       <c r="H10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1149,33 +1146,33 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1192,13 +1189,13 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -1221,12 +1218,12 @@
         <v>15</v>
       </c>
       <c r="H14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -1235,12 +1232,12 @@
         <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
         <v>7</v>
@@ -1249,7 +1246,7 @@
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1269,7 +1266,7 @@
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1286,13 +1283,13 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1309,10 +1306,10 @@
         <v>0.25</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1329,10 +1326,10 @@
         <v>0.5</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1349,10 +1346,10 @@
         <v>0.2</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1369,36 +1366,36 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
         <v>35</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>36</v>
-      </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1415,13 +1412,13 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1441,7 +1438,7 @@
         <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1464,7 +1461,7 @@
         <v>8</v>
       </c>
       <c r="H26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1481,13 +1478,13 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1495,53 +1492,53 @@
         <v>18</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
+        <v>22</v>
+      </c>
+      <c r="F29" t="s">
         <v>32</v>
       </c>
-      <c r="F29" t="s">
-        <v>15</v>
+      <c r="G29" t="s">
+        <v>32</v>
       </c>
       <c r="H29" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1553,15 +1550,15 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1573,21 +1570,21 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -1599,29 +1596,29 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -1633,15 +1630,15 @@
         <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1653,18 +1650,18 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F35" t="s">
         <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B36">
         <v>-6</v>
@@ -1676,10 +1673,10 @@
         <v>0.25</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1703,27 +1700,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" t="s">
         <v>171</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>172</v>
       </c>
-      <c r="D1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>173</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>174</v>
-      </c>
-      <c r="G1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1746,7 +1743,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1769,7 +1766,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1792,7 +1789,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -1815,7 +1812,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -1838,7 +1835,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1861,7 +1858,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1884,7 +1881,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -1907,7 +1904,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -1930,7 +1927,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -1953,7 +1950,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -1976,7 +1973,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -1999,7 +1996,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2022,7 +2019,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -2045,7 +2042,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -2068,7 +2065,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B23">
         <v>16</v>
@@ -2091,7 +2088,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25">
         <v>12</v>
@@ -2114,7 +2111,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B26">
         <v>10</v>
@@ -2164,12 +2161,12 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2183,7 +2180,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2197,7 +2194,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2211,7 +2208,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -2225,7 +2222,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -2239,7 +2236,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -2253,7 +2250,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -2267,7 +2264,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -2281,7 +2278,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -2295,7 +2292,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -2309,7 +2306,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -2323,7 +2320,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -2337,7 +2334,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -2351,7 +2348,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -2365,7 +2362,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -2379,7 +2376,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -2393,7 +2390,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -2407,7 +2404,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -2421,7 +2418,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -2435,7 +2432,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -2456,7 +2453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E600040-C4D1-44DA-89A7-D165F82BA4A4}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
@@ -2469,41 +2466,41 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" t="s">
         <v>171</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
         <v>172</v>
       </c>
-      <c r="E1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>173</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>174</v>
       </c>
-      <c r="H1" t="s">
-        <v>175</v>
-      </c>
       <c r="I1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2517,10 +2514,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2534,10 +2531,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -2545,10 +2542,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -2565,10 +2562,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -2576,10 +2573,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2593,10 +2590,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -2604,10 +2601,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -2615,10 +2612,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" t="s">
         <v>177</v>
-      </c>
-      <c r="B11" t="s">
-        <v>178</v>
       </c>
       <c r="E11">
         <v>5000</v>
@@ -2629,15 +2626,15 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -2645,10 +2642,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2665,10 +2662,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -2682,10 +2679,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -2702,15 +2699,15 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -2718,10 +2715,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19">
         <v>-3</v>
@@ -2735,20 +2732,20 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22">
         <v>5000</v>
@@ -2759,10 +2756,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -2770,10 +2767,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -2790,15 +2787,15 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -2821,15 +2818,15 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -2837,10 +2834,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E29">
         <v>5000</v>
@@ -2851,10 +2848,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C30">
         <v>6</v>
@@ -2871,10 +2868,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2888,10 +2885,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E32">
         <v>80000</v>
@@ -2902,15 +2899,15 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I34" t="b">
         <v>1</v>
@@ -2918,10 +2915,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E35">
         <v>5000</v>
@@ -2932,10 +2929,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2952,10 +2949,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -2963,15 +2960,15 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E39">
         <v>5000</v>
@@ -2988,10 +2985,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C40">
         <v>-3</v>
@@ -3008,10 +3005,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -3028,30 +3025,30 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -3059,40 +3056,40 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
@@ -3100,10 +3097,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D54">
         <v>-9</v>
@@ -3117,10 +3114,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D55">
         <v>5</v>
@@ -3134,20 +3131,20 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B58" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
@@ -3155,10 +3152,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" t="s">
         <v>88</v>
-      </c>
-      <c r="B59" t="s">
-        <v>89</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -3172,10 +3169,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>

--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AAE34CC-E7F6-4BC7-9578-7F5A53FCBC94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF13D69-44BD-425A-B6D3-8F5808FCBFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DAB44D-10D6-48D9-84AA-13B1D653DD7B}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1203,13 +1203,13 @@
         <v>7</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
         <v>4</v>
-      </c>
-      <c r="D14">
-        <v>5</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -1492,13 +1492,13 @@
         <v>18</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
         <v>31</v>
@@ -2453,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E600040-C4D1-44DA-89A7-D165F82BA4A4}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2854,10 +2854,10 @@
         <v>143</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E30">
         <v>80000</v>

--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF13D69-44BD-425A-B6D3-8F5808FCBFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2100D8-6ED0-4370-B3A1-5D67EDCFD723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DAB44D-10D6-48D9-84AA-13B1D653DD7B}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1137,10 +1137,10 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -2453,7 +2453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E600040-C4D1-44DA-89A7-D165F82BA4A4}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>

--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2100D8-6ED0-4370-B3A1-5D67EDCFD723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B06EAB0-9DC9-47CB-A67E-389F39FC2554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Amber</t>
   </si>
   <si>
-    <t>Blades</t>
-  </si>
-  <si>
     <t>Dawnguard</t>
   </si>
   <si>
@@ -332,9 +329,6 @@
     <t>Silver_Sword</t>
   </si>
   <si>
-    <t>Blades_Sword</t>
-  </si>
-  <si>
     <t>Spectral_Sword</t>
   </si>
   <si>
@@ -579,6 +573,12 @@
   </si>
   <si>
     <t>Redguard_Sword</t>
+  </si>
+  <si>
+    <t>Akaviri</t>
+  </si>
+  <si>
+    <t>Akaviri_Sword</t>
   </si>
 </sst>
 </file>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DAB44D-10D6-48D9-84AA-13B1D653DD7B}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,13 +949,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -967,12 +967,12 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -984,10 +984,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1007,15 +1007,15 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1027,15 +1027,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1047,15 +1047,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1067,15 +1067,15 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1083,7 +1083,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1091,7 +1091,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -1103,15 +1103,15 @@
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1123,18 +1123,18 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1146,38 +1146,38 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -1189,18 +1189,18 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1212,46 +1212,46 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -1263,15 +1263,15 @@
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1283,18 +1283,18 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19">
         <v>-1</v>
@@ -1306,15 +1306,15 @@
         <v>0.25</v>
       </c>
       <c r="G19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1326,15 +1326,15 @@
         <v>0.5</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21">
         <v>-2</v>
@@ -1346,15 +1346,15 @@
         <v>0.2</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H21" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1366,41 +1366,41 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
         <v>34</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H23" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1412,18 +1412,18 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25">
         <v>-1</v>
@@ -1435,15 +1435,15 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26">
         <v>5</v>
@@ -1455,18 +1455,18 @@
         <v>40</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F26" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H26" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1478,18 +1478,18 @@
         <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1501,18 +1501,18 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1524,21 +1524,21 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H29" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1550,15 +1550,15 @@
         <v>1</v>
       </c>
       <c r="G30" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H30" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1570,21 +1570,21 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -1596,29 +1596,29 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H32" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H33" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B34">
         <v>5</v>
@@ -1630,15 +1630,15 @@
         <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1650,18 +1650,18 @@
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36">
         <v>-6</v>
@@ -1673,10 +1673,10 @@
         <v>0.25</v>
       </c>
       <c r="E36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H36" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1700,27 +1700,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" t="s">
         <v>170</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>171</v>
       </c>
-      <c r="D1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>172</v>
-      </c>
-      <c r="F1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -1950,7 +1950,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -1973,7 +1973,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -1996,7 +1996,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <v>16</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25">
         <v>12</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26">
         <v>10</v>
@@ -2161,12 +2161,12 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2194,7 +2194,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2208,7 +2208,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -2278,7 +2278,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -2292,7 +2292,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -2362,7 +2362,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -2376,7 +2376,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -2390,7 +2390,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -2453,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E600040-C4D1-44DA-89A7-D165F82BA4A4}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2466,41 +2466,41 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
         <v>170</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>171</v>
       </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>172</v>
       </c>
-      <c r="G1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H1" t="s">
-        <v>174</v>
-      </c>
       <c r="I1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2514,10 +2514,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2531,10 +2531,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -2542,10 +2542,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -2562,10 +2562,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -2573,10 +2573,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2590,10 +2590,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -2601,10 +2601,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -2612,10 +2612,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E11">
         <v>5000</v>
@@ -2626,15 +2626,15 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -2642,10 +2642,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2662,10 +2662,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -2679,10 +2679,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>179</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -2699,15 +2699,15 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -2715,10 +2715,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D19">
         <v>-3</v>
@@ -2732,20 +2732,20 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E22">
         <v>5000</v>
@@ -2756,10 +2756,10 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -2767,10 +2767,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -2787,15 +2787,15 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -2818,15 +2818,15 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -2834,10 +2834,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E29">
         <v>5000</v>
@@ -2848,10 +2848,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C30">
         <v>7</v>
@@ -2868,10 +2868,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -2885,10 +2885,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E32">
         <v>80000</v>
@@ -2899,15 +2899,15 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I34" t="b">
         <v>1</v>
@@ -2915,10 +2915,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E35">
         <v>5000</v>
@@ -2929,10 +2929,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2949,10 +2949,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -2960,15 +2960,15 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E39">
         <v>5000</v>
@@ -2985,10 +2985,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C40">
         <v>-3</v>
@@ -3005,10 +3005,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C41">
         <v>7</v>
@@ -3025,30 +3025,30 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -3056,40 +3056,40 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I53" t="b">
         <v>0</v>
@@ -3097,10 +3097,10 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D54">
         <v>-9</v>
@@ -3114,10 +3114,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D55">
         <v>5</v>
@@ -3131,20 +3131,20 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B58" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="I58" t="b">
         <v>0</v>
@@ -3152,10 +3152,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" t="s">
         <v>87</v>
-      </c>
-      <c r="B59" t="s">
-        <v>88</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -3169,10 +3169,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I60" t="b">
         <v>0</v>

--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B06EAB0-9DC9-47CB-A67E-389F39FC2554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9AB6D0-3E37-41E7-9949-6081FB16A8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="180">
   <si>
     <t>Primary</t>
   </si>
@@ -933,8 +933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DAB44D-10D6-48D9-84AA-13B1D653DD7B}">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,13 +1524,10 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
         <v>155</v>
@@ -2453,7 +2450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E600040-C4D1-44DA-89A7-D165F82BA4A4}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>

--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9AB6D0-3E37-41E7-9949-6081FB16A8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370800E4-BDBA-4713-AE3B-4C6D127F8DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="182">
   <si>
     <t>Primary</t>
   </si>
@@ -579,6 +579,12 @@
   </si>
   <si>
     <t>Akaviri_Sword</t>
+  </si>
+  <si>
+    <t>Irkngthand</t>
+  </si>
+  <si>
+    <t>FangOfHaynekhtnamet</t>
   </si>
 </sst>
 </file>
@@ -931,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DAB44D-10D6-48D9-84AA-13B1D653DD7B}">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1423,139 +1429,139 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>180</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>6</v>
       </c>
       <c r="H25" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
       <c r="H27" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28">
         <v>3</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="H28" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
         <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>176</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="G30" t="s">
-        <v>21</v>
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>176</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1564,16 +1570,10 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
         <v>21</v>
-      </c>
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>18</v>
       </c>
       <c r="H31" t="s">
         <v>144</v>
@@ -1581,19 +1581,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C32">
         <v>0</v>
       </c>
       <c r="D32">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H32" t="s">
         <v>144</v>
@@ -1601,78 +1607,98 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="B33">
         <v>3</v>
       </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>7</v>
+      </c>
       <c r="G33" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="H33" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B34">
-        <v>5</v>
-      </c>
-      <c r="C34">
-        <v>4</v>
-      </c>
-      <c r="D34">
-        <v>40</v>
-      </c>
-      <c r="E34" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>56</v>
       </c>
       <c r="H34" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F35" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>22</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>-6</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>-7</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>0.25</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>22</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H37" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2448,10 +2474,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E600040-C4D1-44DA-89A7-D165F82BA4A4}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2734,29 +2760,32 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>112</v>
+        <v>181</v>
+      </c>
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21">
+        <v>5000</v>
+      </c>
+      <c r="I21" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22">
-        <v>5000</v>
-      </c>
-      <c r="I22" t="b">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>163</v>
+        <v>96</v>
+      </c>
+      <c r="E23">
+        <v>5000</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -2764,19 +2793,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="B24" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24">
-        <v>4</v>
-      </c>
-      <c r="D24">
-        <v>5</v>
-      </c>
-      <c r="E24">
-        <v>1000</v>
+        <v>163</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -2784,60 +2804,66 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>113</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="E25">
+        <v>1000</v>
+      </c>
+      <c r="I25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>-8</v>
-      </c>
-      <c r="E26">
-        <v>5000</v>
-      </c>
-      <c r="F26">
-        <v>-0.125</v>
-      </c>
-      <c r="G26">
-        <v>0.05</v>
-      </c>
-      <c r="I26" t="b">
-        <v>1</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>-8</v>
+      </c>
+      <c r="E27">
+        <v>5000</v>
+      </c>
+      <c r="F27">
+        <v>-0.125</v>
+      </c>
+      <c r="G27">
+        <v>0.05</v>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" t="s">
-        <v>164</v>
-      </c>
-      <c r="I28" t="b">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E29">
-        <v>5000</v>
+        <v>164</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -2845,33 +2871,30 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30">
-        <v>7</v>
-      </c>
-      <c r="D30">
-        <v>3.5</v>
+        <v>137</v>
       </c>
       <c r="E30">
-        <v>80000</v>
+        <v>5000</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>141</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="E31">
         <v>80000</v>
@@ -2882,10 +2905,13 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>93</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
       </c>
       <c r="E32">
         <v>80000</v>
@@ -2896,60 +2922,63 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>118</v>
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33">
+        <v>80000</v>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" t="s">
-        <v>97</v>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35">
-        <v>5000</v>
+        <v>97</v>
       </c>
       <c r="I35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>-4</v>
+        <v>89</v>
       </c>
       <c r="E36">
         <v>5000</v>
       </c>
       <c r="I36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s">
-        <v>139</v>
+        <v>98</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>-4</v>
+      </c>
+      <c r="E37">
+        <v>5000</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -2957,38 +2986,29 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+      <c r="I38" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39">
-        <v>5000</v>
-      </c>
-      <c r="F39">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G39">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="I39" t="b">
-        <v>0</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
         <v>99</v>
       </c>
-      <c r="C40">
-        <v>-3</v>
+      <c r="E40">
+        <v>5000</v>
       </c>
       <c r="F40">
         <v>7.4999999999999997E-2</v>
@@ -3002,108 +3022,111 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="C41">
-        <v>7</v>
-      </c>
-      <c r="D41">
-        <v>2</v>
-      </c>
-      <c r="E41">
-        <v>80000</v>
+        <v>-3</v>
+      </c>
+      <c r="F41">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G41">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>85</v>
+      </c>
+      <c r="B42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42">
+        <v>80000</v>
+      </c>
+      <c r="I42" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" t="s">
-        <v>98</v>
-      </c>
-      <c r="I46" t="b">
-        <v>0</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>80</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="I47" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>81</v>
-      </c>
-      <c r="B53" t="s">
-        <v>162</v>
-      </c>
-      <c r="I53" t="b">
-        <v>0</v>
+        <v>131</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>132</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
-      </c>
-      <c r="D54">
-        <v>-9</v>
-      </c>
-      <c r="F54">
-        <v>0.2</v>
+        <v>162</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
@@ -3111,54 +3134,54 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>101</v>
       </c>
       <c r="D55">
-        <v>5</v>
-      </c>
-      <c r="E55">
-        <v>80000</v>
+        <v>-9</v>
+      </c>
+      <c r="F55">
+        <v>0.2</v>
       </c>
       <c r="I55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>133</v>
+        <v>82</v>
+      </c>
+      <c r="B56" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>80000</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>83</v>
-      </c>
-      <c r="B58" t="s">
-        <v>177</v>
-      </c>
-      <c r="I58" t="b">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="E59">
-        <v>80000</v>
+        <v>177</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -3166,12 +3189,29 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>80000</v>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>84</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>135</v>
       </c>
-      <c r="I60" t="b">
+      <c r="I61" t="b">
         <v>0</v>
       </c>
     </row>

--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370800E4-BDBA-4713-AE3B-4C6D127F8DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A419C6D-C185-49CB-9F99-1A6201C8C78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="192">
   <si>
     <t>Primary</t>
   </si>
@@ -59,532 +59,562 @@
     <t>Dragonbone</t>
   </si>
   <si>
+    <t>Elven</t>
+  </si>
+  <si>
+    <t>Falmer</t>
+  </si>
+  <si>
+    <t>FalmerHoned</t>
+  </si>
+  <si>
+    <t>Forsworn</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Imperial</t>
+  </si>
+  <si>
+    <t>NordHero</t>
+  </si>
+  <si>
+    <t>Orcish</t>
+  </si>
+  <si>
+    <t>SkyforgeSteel</t>
+  </si>
+  <si>
+    <t>Stalhrim</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>AncientNord</t>
+  </si>
+  <si>
+    <t>AncientNordHoned</t>
+  </si>
+  <si>
+    <t>Dragon Bone</t>
+  </si>
+  <si>
+    <t>Chaurus Chitin</t>
+  </si>
+  <si>
+    <t>Leather</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>Golden</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t>Tanto</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>Katana</t>
+  </si>
+  <si>
+    <t>Shortsword</t>
+  </si>
+  <si>
+    <t>Wakizashi</t>
+  </si>
+  <si>
+    <t>WarAxe</t>
+  </si>
+  <si>
+    <t>Hatchet</t>
+  </si>
+  <si>
+    <t>Mace</t>
+  </si>
+  <si>
+    <t>Club</t>
+  </si>
+  <si>
+    <t>Maul</t>
+  </si>
+  <si>
+    <t>Greatsword</t>
+  </si>
+  <si>
+    <t>DaiKatana</t>
+  </si>
+  <si>
+    <t>Battleaxe</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>LongMace</t>
+  </si>
+  <si>
+    <t>Quarterstaff</t>
+  </si>
+  <si>
+    <t>Battlestaff</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>Crossbow</t>
+  </si>
+  <si>
+    <t>Spectral</t>
+  </si>
+  <si>
+    <t>Ectoplasm</t>
+  </si>
+  <si>
+    <t>Daedric</t>
+  </si>
+  <si>
+    <t>DawnguardImproved</t>
+  </si>
+  <si>
+    <t>Dwemer</t>
+  </si>
+  <si>
+    <t>DwemerImproved</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>BladeOfSacrifice</t>
+  </si>
+  <si>
+    <t>Bloodscythe</t>
+  </si>
+  <si>
+    <t>BloodskalBlade</t>
+  </si>
+  <si>
+    <t>ChampionsCudgel</t>
+  </si>
+  <si>
+    <t>Chillrend</t>
+  </si>
+  <si>
+    <t>Dawnbreaker</t>
+  </si>
+  <si>
+    <t>Dragonbane</t>
+  </si>
+  <si>
+    <t>DwarvenBlackBowOfFate</t>
+  </si>
+  <si>
+    <t>EbonyBlade</t>
+  </si>
+  <si>
+    <t>Ghostblade</t>
+  </si>
+  <si>
+    <t>GlassBowOfTheStagPrince</t>
+  </si>
+  <si>
+    <t>KahvozeinsFang</t>
+  </si>
+  <si>
+    <t>Keening</t>
+  </si>
+  <si>
+    <t>MehrunesRazor</t>
+  </si>
+  <si>
+    <t>Nettlebane</t>
+  </si>
+  <si>
+    <t>RedEaglesBane</t>
+  </si>
+  <si>
+    <t>RedEaglesFury</t>
+  </si>
+  <si>
+    <t>Soulrender</t>
+  </si>
+  <si>
+    <t>Stormfang</t>
+  </si>
+  <si>
+    <t>Volendrung</t>
+  </si>
+  <si>
+    <t>Windshear</t>
+  </si>
+  <si>
+    <t>Zephyr</t>
+  </si>
+  <si>
+    <t>RuefulAxe</t>
+  </si>
+  <si>
+    <t>Wuuthrad</t>
+  </si>
+  <si>
+    <t>Ebony_Battleaxe</t>
+  </si>
+  <si>
+    <t>Daedric_Dagger</t>
+  </si>
+  <si>
+    <t>Ebony_Dagger</t>
+  </si>
+  <si>
+    <t>Horksbane</t>
+  </si>
+  <si>
+    <t>RustyMace</t>
+  </si>
+  <si>
+    <t>Ebony_Greatsword</t>
+  </si>
+  <si>
+    <t>Daedric_Mace</t>
+  </si>
+  <si>
+    <t>Glass_Sword</t>
+  </si>
+  <si>
+    <t>Silver_Sword</t>
+  </si>
+  <si>
+    <t>Spectral_Sword</t>
+  </si>
+  <si>
+    <t>Daedric_Sword</t>
+  </si>
+  <si>
+    <t>Ebony_Sword</t>
+  </si>
+  <si>
+    <t>NordHero_Sword</t>
+  </si>
+  <si>
+    <t>Dawnguard_WarAxe</t>
+  </si>
+  <si>
+    <t>Orcish_Warhammer</t>
+  </si>
+  <si>
+    <t>Dawnguard_Warhammer</t>
+  </si>
+  <si>
+    <t>AetherialStaff</t>
+  </si>
+  <si>
+    <t>AncientDawnguardWarAxe</t>
+  </si>
+  <si>
+    <t>AncientDawnguardWarhammer</t>
+  </si>
+  <si>
+    <t>AurielsBow</t>
+  </si>
+  <si>
+    <t>AwakenedBladeOfWoe</t>
+  </si>
+  <si>
+    <t>BladeOfWoe</t>
+  </si>
+  <si>
+    <t>BrokenStaff</t>
+  </si>
+  <si>
+    <t>DragonPriestStaff</t>
+  </si>
+  <si>
+    <t>EyeOfMelka</t>
+  </si>
+  <si>
+    <t>GadnorsStaffOfCharming</t>
+  </si>
+  <si>
+    <t>GoraksTrollGuttingKnife</t>
+  </si>
+  <si>
+    <t>HalldirsStaff</t>
+  </si>
+  <si>
+    <t>HarkonsSword</t>
+  </si>
+  <si>
+    <t>HevnoraaksStaff</t>
+  </si>
+  <si>
+    <t>MaceOfMolagBal</t>
+  </si>
+  <si>
+    <t>MiraaksStaff</t>
+  </si>
+  <si>
+    <t>MiraaksSword</t>
+  </si>
+  <si>
+    <t>NightingaleBlade</t>
+  </si>
+  <si>
+    <t>NightingaleBow</t>
+  </si>
+  <si>
+    <t>RahgotsStaff</t>
+  </si>
+  <si>
+    <t>SanguineRose</t>
+  </si>
+  <si>
+    <t>SildsStaff</t>
+  </si>
+  <si>
+    <t>SkullOfCorruption</t>
+  </si>
+  <si>
+    <t>StaffOfArcaneAuthority</t>
+  </si>
+  <si>
+    <t>StaffOfHagsWrath</t>
+  </si>
+  <si>
+    <t>StaffOfJyrikGauldurson</t>
+  </si>
+  <si>
+    <t>StaffOfMagnus</t>
+  </si>
+  <si>
+    <t>StaffOfRuunvald</t>
+  </si>
+  <si>
+    <t>StaffOfTandil</t>
+  </si>
+  <si>
+    <t>TheLonghammer</t>
+  </si>
+  <si>
+    <t>Wabbajack</t>
+  </si>
+  <si>
+    <t>WabbajackDA15</t>
+  </si>
+  <si>
+    <t>Dwarven_Bow</t>
+  </si>
+  <si>
+    <t>Daedric_Warhammer</t>
+  </si>
+  <si>
+    <t>Dragonbone_Dagger</t>
+  </si>
+  <si>
+    <t>Forsworn_Sword</t>
+  </si>
+  <si>
+    <t>Ebony_Bow</t>
+  </si>
+  <si>
+    <t>Elven_Bow</t>
+  </si>
+  <si>
+    <t>Dwarven_Dagger</t>
+  </si>
+  <si>
+    <t>Silver_Battleaxe</t>
+  </si>
+  <si>
+    <t>Perk</t>
+  </si>
+  <si>
+    <t>Craftsmanship</t>
+  </si>
+  <si>
+    <t>Daedric Smithing</t>
+  </si>
+  <si>
+    <t>Draconic Blacksmithing</t>
+  </si>
+  <si>
+    <t>Dwarven Smithing</t>
+  </si>
+  <si>
+    <t>Ebony Smithing</t>
+  </si>
+  <si>
+    <t>Elven Smithing</t>
+  </si>
+  <si>
+    <t>Glass Smithing</t>
+  </si>
+  <si>
+    <t>Golden Smithing</t>
+  </si>
+  <si>
+    <t>Madness Smithing</t>
+  </si>
+  <si>
+    <t>Orcish Smithing</t>
+  </si>
+  <si>
+    <t>Stalhrim Smithing</t>
+  </si>
+  <si>
+    <t>Advanced Blacksmithing</t>
+  </si>
+  <si>
+    <t>Arcane Craftsmanship</t>
+  </si>
+  <si>
+    <t>Amber Smithing</t>
+  </si>
+  <si>
+    <t>Dark Smithing</t>
+  </si>
+  <si>
+    <t>Divine</t>
+  </si>
+  <si>
+    <t>Skyforge Smithing</t>
+  </si>
+  <si>
+    <t>Silver_Greatsword</t>
+  </si>
+  <si>
+    <t>Steel_Greatsword</t>
+  </si>
+  <si>
+    <t>Glass_Bow</t>
+  </si>
+  <si>
+    <t>Steel_Mace</t>
+  </si>
+  <si>
+    <t>Steel_Warhammer</t>
+  </si>
+  <si>
+    <t>Bound</t>
+  </si>
+  <si>
+    <t>BoundMystic</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Reach</t>
+  </si>
+  <si>
+    <t>Stagger</t>
+  </si>
+  <si>
+    <t>Alikr</t>
+  </si>
+  <si>
+    <t>Boneshaver</t>
+  </si>
+  <si>
+    <t>Alikr_Sword</t>
+  </si>
+  <si>
+    <t>Redguard</t>
+  </si>
+  <si>
+    <t>Redguard_Sword</t>
+  </si>
+  <si>
+    <t>Akaviri</t>
+  </si>
+  <si>
+    <t>Akaviri_Sword</t>
+  </si>
+  <si>
+    <t>Irkngthand</t>
+  </si>
+  <si>
+    <t>FangOfHaynekhtnamet</t>
+  </si>
+  <si>
+    <t>Refined Amber</t>
+  </si>
+  <si>
+    <t>Steel Ingot</t>
+  </si>
+  <si>
+    <t>Quicksilver Ingot</t>
+  </si>
+  <si>
+    <t>Ebony Ingot</t>
+  </si>
+  <si>
+    <t>Silver Ingot</t>
+  </si>
+  <si>
+    <t>Dwarven Metal Ingot</t>
+  </si>
+  <si>
+    <t>Iron Ingot</t>
+  </si>
+  <si>
+    <t>Gold Ingot</t>
+  </si>
+  <si>
+    <t>Madness Ingot</t>
+  </si>
+  <si>
+    <t>Orichalcum Ingot</t>
+  </si>
+  <si>
+    <t>Refined Moonstone</t>
+  </si>
+  <si>
+    <t>Refined Malachite</t>
+  </si>
+  <si>
+    <t>Corundum Ingot</t>
+  </si>
+  <si>
+    <t>Firewood</t>
+  </si>
+  <si>
     <t>Dwarven</t>
   </si>
   <si>
     <t>Ebony</t>
   </si>
   <si>
-    <t>Elven</t>
-  </si>
-  <si>
-    <t>Falmer</t>
-  </si>
-  <si>
-    <t>FalmerHoned</t>
-  </si>
-  <si>
-    <t>Forsworn</t>
-  </si>
-  <si>
-    <t>Glass</t>
-  </si>
-  <si>
-    <t>Imperial</t>
-  </si>
-  <si>
     <t>Iron</t>
   </si>
   <si>
     <t>Madness</t>
   </si>
   <si>
-    <t>NordHero</t>
-  </si>
-  <si>
-    <t>Orcish</t>
+    <t>Quicksilver</t>
   </si>
   <si>
     <t>Silver</t>
   </si>
   <si>
-    <t>SkyforgeSteel</t>
-  </si>
-  <si>
-    <t>Stalhrim</t>
-  </si>
-  <si>
     <t>Steel</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>AncientNord</t>
-  </si>
-  <si>
-    <t>AncientNordHoned</t>
-  </si>
-  <si>
-    <t>Dragon Bone</t>
-  </si>
-  <si>
-    <t>Moonstone</t>
-  </si>
-  <si>
-    <t>Chaurus Chitin</t>
-  </si>
-  <si>
-    <t>Leather</t>
-  </si>
-  <si>
-    <t>Malachite</t>
-  </si>
-  <si>
-    <t>Orichalcum</t>
-  </si>
-  <si>
-    <t>Quicksilver</t>
-  </si>
-  <si>
-    <t>Dark</t>
-  </si>
-  <si>
-    <t>Golden</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Dagger</t>
-  </si>
-  <si>
-    <t>Tanto</t>
-  </si>
-  <si>
-    <t>Sword</t>
-  </si>
-  <si>
-    <t>Katana</t>
-  </si>
-  <si>
-    <t>Shortsword</t>
-  </si>
-  <si>
-    <t>Wakizashi</t>
-  </si>
-  <si>
-    <t>WarAxe</t>
-  </si>
-  <si>
-    <t>Hatchet</t>
-  </si>
-  <si>
-    <t>Mace</t>
-  </si>
-  <si>
-    <t>Club</t>
-  </si>
-  <si>
-    <t>Maul</t>
-  </si>
-  <si>
-    <t>Greatsword</t>
-  </si>
-  <si>
-    <t>DaiKatana</t>
-  </si>
-  <si>
-    <t>Battleaxe</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>LongMace</t>
-  </si>
-  <si>
-    <t>Quarterstaff</t>
-  </si>
-  <si>
-    <t>Battlestaff</t>
-  </si>
-  <si>
-    <t>Bow</t>
-  </si>
-  <si>
-    <t>Crossbow</t>
-  </si>
-  <si>
-    <t>Spectral</t>
-  </si>
-  <si>
-    <t>Ectoplasm</t>
-  </si>
-  <si>
-    <t>Corundum</t>
-  </si>
-  <si>
-    <t>Daedric</t>
-  </si>
-  <si>
-    <t>DawnguardImproved</t>
-  </si>
-  <si>
-    <t>Dwemer</t>
-  </si>
-  <si>
-    <t>DwemerImproved</t>
-  </si>
-  <si>
-    <t>Base</t>
-  </si>
-  <si>
-    <t>BladeOfSacrifice</t>
-  </si>
-  <si>
-    <t>Bloodscythe</t>
-  </si>
-  <si>
-    <t>BloodskalBlade</t>
-  </si>
-  <si>
-    <t>ChampionsCudgel</t>
-  </si>
-  <si>
-    <t>Chillrend</t>
-  </si>
-  <si>
-    <t>Dawnbreaker</t>
-  </si>
-  <si>
-    <t>Dragonbane</t>
-  </si>
-  <si>
-    <t>DwarvenBlackBowOfFate</t>
-  </si>
-  <si>
-    <t>EbonyBlade</t>
-  </si>
-  <si>
-    <t>Ghostblade</t>
-  </si>
-  <si>
-    <t>GlassBowOfTheStagPrince</t>
-  </si>
-  <si>
-    <t>KahvozeinsFang</t>
-  </si>
-  <si>
-    <t>Keening</t>
-  </si>
-  <si>
-    <t>MehrunesRazor</t>
-  </si>
-  <si>
-    <t>Nettlebane</t>
-  </si>
-  <si>
-    <t>RedEaglesBane</t>
-  </si>
-  <si>
-    <t>RedEaglesFury</t>
-  </si>
-  <si>
-    <t>Soulrender</t>
-  </si>
-  <si>
-    <t>Stormfang</t>
-  </si>
-  <si>
-    <t>Volendrung</t>
-  </si>
-  <si>
-    <t>Windshear</t>
-  </si>
-  <si>
-    <t>Zephyr</t>
-  </si>
-  <si>
-    <t>RuefulAxe</t>
-  </si>
-  <si>
-    <t>Wuuthrad</t>
-  </si>
-  <si>
-    <t>Ebony_Battleaxe</t>
-  </si>
-  <si>
-    <t>Daedric_Dagger</t>
-  </si>
-  <si>
-    <t>Ebony_Dagger</t>
-  </si>
-  <si>
-    <t>Horksbane</t>
-  </si>
-  <si>
-    <t>RustyMace</t>
-  </si>
-  <si>
-    <t>Ebony_Greatsword</t>
-  </si>
-  <si>
-    <t>Daedric_Mace</t>
-  </si>
-  <si>
-    <t>Glass_Sword</t>
-  </si>
-  <si>
-    <t>Silver_Sword</t>
-  </si>
-  <si>
-    <t>Spectral_Sword</t>
-  </si>
-  <si>
-    <t>Daedric_Sword</t>
-  </si>
-  <si>
-    <t>Ebony_Sword</t>
-  </si>
-  <si>
-    <t>NordHero_Sword</t>
-  </si>
-  <si>
-    <t>Dawnguard_WarAxe</t>
-  </si>
-  <si>
-    <t>Orcish_Warhammer</t>
-  </si>
-  <si>
-    <t>Dawnguard_Warhammer</t>
-  </si>
-  <si>
-    <t>AetherialStaff</t>
-  </si>
-  <si>
-    <t>AncientDawnguardWarAxe</t>
-  </si>
-  <si>
-    <t>AncientDawnguardWarhammer</t>
-  </si>
-  <si>
-    <t>AurielsBow</t>
-  </si>
-  <si>
-    <t>AwakenedBladeOfWoe</t>
-  </si>
-  <si>
-    <t>BladeOfWoe</t>
-  </si>
-  <si>
-    <t>BrokenStaff</t>
-  </si>
-  <si>
-    <t>DragonPriestStaff</t>
-  </si>
-  <si>
-    <t>EyeOfMelka</t>
-  </si>
-  <si>
-    <t>GadnorsStaffOfCharming</t>
-  </si>
-  <si>
-    <t>GoraksTrollGuttingKnife</t>
-  </si>
-  <si>
-    <t>HalldirsStaff</t>
-  </si>
-  <si>
-    <t>HarkonsSword</t>
-  </si>
-  <si>
-    <t>HevnoraaksStaff</t>
-  </si>
-  <si>
-    <t>MaceOfMolagBal</t>
-  </si>
-  <si>
-    <t>MiraaksStaff</t>
-  </si>
-  <si>
-    <t>MiraaksSword</t>
-  </si>
-  <si>
-    <t>NightingaleBlade</t>
-  </si>
-  <si>
-    <t>NightingaleBow</t>
-  </si>
-  <si>
-    <t>RahgotsStaff</t>
-  </si>
-  <si>
-    <t>SanguineRose</t>
-  </si>
-  <si>
-    <t>SildsStaff</t>
-  </si>
-  <si>
-    <t>SkullOfCorruption</t>
-  </si>
-  <si>
-    <t>StaffOfArcaneAuthority</t>
-  </si>
-  <si>
-    <t>StaffOfHagsWrath</t>
-  </si>
-  <si>
-    <t>StaffOfJyrikGauldurson</t>
-  </si>
-  <si>
-    <t>StaffOfMagnus</t>
-  </si>
-  <si>
-    <t>StaffOfRuunvald</t>
-  </si>
-  <si>
-    <t>StaffOfTandil</t>
-  </si>
-  <si>
-    <t>TheLonghammer</t>
-  </si>
-  <si>
-    <t>Wabbajack</t>
-  </si>
-  <si>
-    <t>WabbajackDA15</t>
-  </si>
-  <si>
-    <t>Dwarven_Bow</t>
-  </si>
-  <si>
-    <t>Daedric_Warhammer</t>
-  </si>
-  <si>
-    <t>Dragonbone_Dagger</t>
-  </si>
-  <si>
-    <t>Forsworn_Sword</t>
-  </si>
-  <si>
-    <t>Ebony_Bow</t>
-  </si>
-  <si>
-    <t>Elven_Bow</t>
-  </si>
-  <si>
-    <t>Dwarven_Dagger</t>
-  </si>
-  <si>
-    <t>Silver_Battleaxe</t>
-  </si>
-  <si>
-    <t>Perk</t>
-  </si>
-  <si>
-    <t>Craftsmanship</t>
-  </si>
-  <si>
-    <t>Daedric Smithing</t>
-  </si>
-  <si>
-    <t>Draconic Blacksmithing</t>
-  </si>
-  <si>
-    <t>Dwarven Smithing</t>
-  </si>
-  <si>
-    <t>Ebony Smithing</t>
-  </si>
-  <si>
-    <t>Elven Smithing</t>
-  </si>
-  <si>
-    <t>Glass Smithing</t>
-  </si>
-  <si>
-    <t>Golden Smithing</t>
-  </si>
-  <si>
-    <t>Madness Smithing</t>
-  </si>
-  <si>
-    <t>Orcish Smithing</t>
-  </si>
-  <si>
-    <t>Stalhrim Smithing</t>
-  </si>
-  <si>
-    <t>Advanced Blacksmithing</t>
-  </si>
-  <si>
-    <t>Arcane Craftsmanship</t>
-  </si>
-  <si>
-    <t>Amber Smithing</t>
-  </si>
-  <si>
-    <t>Dark Smithing</t>
-  </si>
-  <si>
-    <t>Divine</t>
-  </si>
-  <si>
-    <t>Skyforge Smithing</t>
-  </si>
-  <si>
-    <t>Silver_Greatsword</t>
-  </si>
-  <si>
-    <t>Steel_Greatsword</t>
-  </si>
-  <si>
-    <t>Glass_Bow</t>
-  </si>
-  <si>
-    <t>Steel_Mace</t>
-  </si>
-  <si>
-    <t>Steel_Warhammer</t>
-  </si>
-  <si>
-    <t>Bound</t>
-  </si>
-  <si>
-    <t>BoundMystic</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>Reach</t>
-  </si>
-  <si>
-    <t>Stagger</t>
-  </si>
-  <si>
-    <t>Alikr</t>
-  </si>
-  <si>
-    <t>Boneshaver</t>
-  </si>
-  <si>
-    <t>Alikr_Sword</t>
-  </si>
-  <si>
-    <t>Redguard</t>
-  </si>
-  <si>
-    <t>Redguard_Sword</t>
-  </si>
-  <si>
-    <t>Akaviri</t>
-  </si>
-  <si>
-    <t>Akaviri_Sword</t>
-  </si>
-  <si>
-    <t>Irkngthand</t>
-  </si>
-  <si>
-    <t>FangOfHaynekhtnamet</t>
   </si>
 </sst>
 </file>
@@ -939,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DAB44D-10D6-48D9-84AA-13B1D653DD7B}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,13 +985,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
@@ -973,12 +1003,12 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -990,10 +1020,10 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="H2" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1010,18 +1040,18 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>171</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="H3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1033,15 +1063,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="H4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -1053,15 +1083,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="H5" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1073,15 +1103,15 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="H6" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1089,7 +1119,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1097,7 +1127,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B9">
         <v>7</v>
@@ -1109,15 +1139,15 @@
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="H9" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1129,13 +1159,13 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="H10" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1152,33 +1182,33 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="H11" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="H12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1195,18 +1225,18 @@
         <v>80</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="H13" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1218,46 +1248,46 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="H14" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="H15" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="H16" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>186</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -1269,15 +1299,15 @@
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="H17" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1289,18 +1319,18 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="H18" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19">
         <v>-1</v>
@@ -1312,15 +1342,15 @@
         <v>0.25</v>
       </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1332,15 +1362,15 @@
         <v>0.5</v>
       </c>
       <c r="G20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21">
         <v>-2</v>
@@ -1352,15 +1382,15 @@
         <v>0.2</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="H21" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>4</v>
@@ -1372,18 +1402,18 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="H22" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1395,18 +1425,18 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>181</v>
       </c>
       <c r="H23" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1418,18 +1448,18 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="H24" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1441,15 +1471,15 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>6</v>
+        <v>176</v>
       </c>
       <c r="H25" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>14</v>
+        <v>187</v>
       </c>
       <c r="B26">
         <v>-1</v>
@@ -1461,15 +1491,15 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="H26" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>188</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1481,18 +1511,18 @@
         <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>15</v>
+        <v>179</v>
       </c>
       <c r="F27" t="s">
-        <v>7</v>
+        <v>174</v>
       </c>
       <c r="H27" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>3</v>
@@ -1504,18 +1534,18 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="H28" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -1527,18 +1557,18 @@
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>180</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="H29" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1550,18 +1580,18 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>31</v>
+        <v>173</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="H30" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1573,15 +1603,15 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="H31" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>190</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1593,21 +1623,21 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="G32" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="H32" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -1619,29 +1649,29 @@
         <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="H33" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B35">
         <v>5</v>
@@ -1653,15 +1683,15 @@
         <v>40</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H35" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1673,18 +1703,18 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
+        <v>177</v>
       </c>
       <c r="H36" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B37">
         <v>-6</v>
@@ -1696,10 +1726,10 @@
         <v>0.25</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="H37" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1723,27 +1753,27 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="G1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -1766,7 +1796,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1789,7 +1819,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>8</v>
@@ -1812,7 +1842,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>8</v>
@@ -1835,7 +1865,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -1858,7 +1888,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1881,7 +1911,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1904,7 +1934,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -1927,7 +1957,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B13">
         <v>10</v>
@@ -1950,7 +1980,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B14">
         <v>9</v>
@@ -1973,7 +2003,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -1996,7 +2026,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B17">
         <v>17</v>
@@ -2019,7 +2049,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -2042,7 +2072,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -2065,7 +2095,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -2088,7 +2118,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B23">
         <v>16</v>
@@ -2111,7 +2141,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B25">
         <v>12</v>
@@ -2134,7 +2164,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B26">
         <v>10</v>
@@ -2184,12 +2214,12 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2203,7 +2233,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2217,7 +2247,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2231,7 +2261,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -2245,7 +2275,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -2259,7 +2289,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -2273,7 +2303,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -2287,7 +2317,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -2301,7 +2331,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -2315,7 +2345,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -2329,7 +2359,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -2343,7 +2373,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>4</v>
@@ -2357,7 +2387,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -2371,7 +2401,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -2385,7 +2415,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -2399,7 +2429,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>4</v>
@@ -2413,7 +2443,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -2427,7 +2457,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -2441,7 +2471,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -2455,7 +2485,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -2476,7 +2506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E600040-C4D1-44DA-89A7-D165F82BA4A4}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -2489,41 +2519,41 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="E1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="G1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="H1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="I1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -2537,10 +2567,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -2554,10 +2584,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -2565,10 +2595,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -2585,10 +2615,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -2596,10 +2626,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -2613,10 +2643,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -2624,10 +2654,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -2635,10 +2665,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="E11">
         <v>5000</v>
@@ -2649,15 +2679,15 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -2665,10 +2695,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2685,10 +2715,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C15">
         <v>5</v>
@@ -2702,10 +2732,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -2722,15 +2752,15 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -2738,10 +2768,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="D19">
         <v>-3</v>
@@ -2755,15 +2785,15 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E21">
         <v>5000</v>
@@ -2774,15 +2804,15 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="E23">
         <v>5000</v>
@@ -2793,10 +2823,10 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -2804,10 +2834,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -2824,15 +2854,15 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -2855,15 +2885,15 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -2871,10 +2901,10 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E30">
         <v>5000</v>
@@ -2885,10 +2915,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C31">
         <v>7</v>
@@ -2905,10 +2935,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -2922,10 +2952,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="B33" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="E33">
         <v>80000</v>
@@ -2936,15 +2966,15 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="I35" t="b">
         <v>1</v>
@@ -2952,10 +2982,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="E36">
         <v>5000</v>
@@ -2966,10 +2996,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2986,10 +3016,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B38" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="I38" t="b">
         <v>1</v>
@@ -2997,15 +3027,15 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E40">
         <v>5000</v>
@@ -3022,10 +3052,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C41">
         <v>-3</v>
@@ -3042,10 +3072,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C42">
         <v>7</v>
@@ -3062,30 +3092,30 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -3093,40 +3123,40 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="I54" t="b">
         <v>0</v>
@@ -3134,10 +3164,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B55" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="D55">
         <v>-9</v>
@@ -3151,10 +3181,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="B56" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D56">
         <v>5</v>
@@ -3168,20 +3198,20 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -3189,10 +3219,10 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C60">
         <v>2</v>
@@ -3206,10 +3236,10 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="I61" t="b">
         <v>0</v>

--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A419C6D-C185-49CB-9F99-1A6201C8C78C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC538090-FBE6-43DB-B47E-FB15E66198B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
@@ -969,8 +969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DAB44D-10D6-48D9-84AA-13B1D653DD7B}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,7 +991,7 @@
         <v>158</v>
       </c>
       <c r="D1" t="s">
-        <v>178</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>

--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC538090-FBE6-43DB-B47E-FB15E66198B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD40A25F-89FD-412B-80C8-448B450B453F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
     <sheet name="Stats" sheetId="4" r:id="rId2"/>
     <sheet name="CraftingQuantities" sheetId="2" r:id="rId3"/>
     <sheet name="Artifacts" sheetId="3" r:id="rId4"/>
+    <sheet name="Patches" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="244">
   <si>
     <t>Primary</t>
   </si>
@@ -615,16 +616,180 @@
   </si>
   <si>
     <t>Steel</t>
+  </si>
+  <si>
+    <t>DivineWrath</t>
+  </si>
+  <si>
+    <t>ImperialLoyalist</t>
+  </si>
+  <si>
+    <t>BlackthornFamily</t>
+  </si>
+  <si>
+    <t>Blooded</t>
+  </si>
+  <si>
+    <t>Duskward</t>
+  </si>
+  <si>
+    <t>Ulag's Legacy</t>
+  </si>
+  <si>
+    <t>Warmonger Armory</t>
+  </si>
+  <si>
+    <t>Lost Paladins of the Divines Wrath Armor</t>
+  </si>
+  <si>
+    <t>Talos Housecarl Armor Pack﻿</t>
+  </si>
+  <si>
+    <t>Hoth</t>
+  </si>
+  <si>
+    <t>Pathfinder</t>
+  </si>
+  <si>
+    <t>SoulRipper</t>
+  </si>
+  <si>
+    <t>AldmeriSword</t>
+  </si>
+  <si>
+    <t>Crescent</t>
+  </si>
+  <si>
+    <t>Dragonfang</t>
+  </si>
+  <si>
+    <t>FoeBreaker</t>
+  </si>
+  <si>
+    <t>Hafyllbrand</t>
+  </si>
+  <si>
+    <t>HammerOfLight</t>
+  </si>
+  <si>
+    <t>Jolhert</t>
+  </si>
+  <si>
+    <t>Judgement</t>
+  </si>
+  <si>
+    <t>Malice</t>
+  </si>
+  <si>
+    <t>NorthernHonor</t>
+  </si>
+  <si>
+    <t>Regnving</t>
+  </si>
+  <si>
+    <t>Rikvard</t>
+  </si>
+  <si>
+    <t>Shard</t>
+  </si>
+  <si>
+    <t>Silverblood</t>
+  </si>
+  <si>
+    <t>Smile</t>
+  </si>
+  <si>
+    <t>Snaerving</t>
+  </si>
+  <si>
+    <t>Stormbird</t>
+  </si>
+  <si>
+    <t>Elven_Sword</t>
+  </si>
+  <si>
+    <t>Stalhrim_WarAxe</t>
+  </si>
+  <si>
+    <t>SwordOfDragonsreach</t>
+  </si>
+  <si>
+    <t>Silver_WarAxe</t>
+  </si>
+  <si>
+    <t>Steel_Sword</t>
+  </si>
+  <si>
+    <t>Stalhrim_Greatsword</t>
+  </si>
+  <si>
+    <t>Ebony_Shortsword</t>
+  </si>
+  <si>
+    <t>Ebony_WarAxe</t>
+  </si>
+  <si>
+    <t>Steel_WarAxe</t>
+  </si>
+  <si>
+    <t>Akaviri_Katana</t>
+  </si>
+  <si>
+    <t>SkyforgeSteel_Warhammer</t>
+  </si>
+  <si>
+    <t>BlackBriarDagger</t>
+  </si>
+  <si>
+    <t>EsbernsKatana</t>
+  </si>
+  <si>
+    <t>HarbingersAxe</t>
+  </si>
+  <si>
+    <t>ShalidorsDagger</t>
+  </si>
+  <si>
+    <t>Elven_Shortsword</t>
+  </si>
+  <si>
+    <t>Dwarven_Shortsword</t>
+  </si>
+  <si>
+    <t>CarcettesWarhammer</t>
+  </si>
+  <si>
+    <t>NelothsStaff</t>
+  </si>
+  <si>
+    <t>YokundasEdge</t>
+  </si>
+  <si>
+    <t>Redguard_Greatsword</t>
+  </si>
+  <si>
+    <t>ZahkriiDoDovahkiin</t>
+  </si>
+  <si>
+    <t>Daedric_Greatsword</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -647,14 +812,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -959,7 +1127,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -969,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DAB44D-10D6-48D9-84AA-13B1D653DD7B}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2195,7 +2363,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2504,16 +2672,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E600040-C4D1-44DA-89A7-D165F82BA4A4}">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3245,7 +3413,461 @@
         <v>0</v>
       </c>
     </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>204</v>
+      </c>
+      <c r="B63" t="s">
+        <v>221</v>
+      </c>
+      <c r="E63">
+        <v>1350</v>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="I64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>238</v>
+      </c>
+      <c r="B65" t="s">
+        <v>91</v>
+      </c>
+      <c r="I65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>205</v>
+      </c>
+      <c r="B66" t="s">
+        <v>222</v>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>206</v>
+      </c>
+      <c r="B67" t="s">
+        <v>151</v>
+      </c>
+      <c r="I67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>233</v>
+      </c>
+      <c r="B68" t="s">
+        <v>230</v>
+      </c>
+      <c r="I68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>207</v>
+      </c>
+      <c r="B69" t="s">
+        <v>231</v>
+      </c>
+      <c r="I69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" t="s">
+        <v>88</v>
+      </c>
+      <c r="I70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>209</v>
+      </c>
+      <c r="B71" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>234</v>
+      </c>
+      <c r="B72" t="s">
+        <v>224</v>
+      </c>
+      <c r="E72">
+        <v>5000</v>
+      </c>
+      <c r="I72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>210</v>
+      </c>
+      <c r="B73" t="s">
+        <v>226</v>
+      </c>
+      <c r="I73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>211</v>
+      </c>
+      <c r="B74" t="s">
+        <v>225</v>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>212</v>
+      </c>
+      <c r="B75" t="s">
+        <v>227</v>
+      </c>
+      <c r="I75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>213</v>
+      </c>
+      <c r="B77" t="s">
+        <v>225</v>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>214</v>
+      </c>
+      <c r="B78" t="s">
+        <v>228</v>
+      </c>
+      <c r="I78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>215</v>
+      </c>
+      <c r="B79" t="s">
+        <v>229</v>
+      </c>
+      <c r="I79" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>235</v>
+      </c>
+      <c r="B80" t="s">
+        <v>78</v>
+      </c>
+      <c r="I80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>216</v>
+      </c>
+      <c r="B81" t="s">
+        <v>237</v>
+      </c>
+      <c r="I81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>217</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="I82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>218</v>
+      </c>
+      <c r="B83" t="s">
+        <v>78</v>
+      </c>
+      <c r="I83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>219</v>
+      </c>
+      <c r="B84" t="s">
+        <v>228</v>
+      </c>
+      <c r="I84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>220</v>
+      </c>
+      <c r="B85" t="s">
+        <v>236</v>
+      </c>
+      <c r="I85" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>223</v>
+      </c>
+      <c r="B86" t="s">
+        <v>88</v>
+      </c>
+      <c r="I86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>240</v>
+      </c>
+      <c r="B87" t="s">
+        <v>241</v>
+      </c>
+      <c r="I87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>242</v>
+      </c>
+      <c r="B89" t="s">
+        <v>243</v>
+      </c>
+      <c r="I89" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F89DD17-A789-4A9A-885F-8377FED7E813}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A8" r:id="rId1" display="https://www.nexusmods.com/skyrimspecialedition/mods/20510" xr:uid="{67C5898F-1EC5-4353-ACEA-A22C39C0637A}"/>
+    <hyperlink ref="A11" r:id="rId2" display="https://www.nexusmods.com/skyrimspecialedition/mods/17809" xr:uid="{F5142EEC-1850-4EA3-AF35-C4745E672891}"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://www.nexusmods.com/skyrim/mods/24253" xr:uid="{A41B7EC1-7908-4B06-9636-0A9A37142AD6}"/>
+    <hyperlink ref="A6" r:id="rId4" display="https://www.nexusmods.com/skyrimspecialedition/mods/5540" xr:uid="{57046CCC-E55B-413C-81E3-D2A3A7488321}"/>
+    <hyperlink ref="A2" r:id="rId5" display="https://www.nexusmods.com/skyrimspecialedition/mods/16137" xr:uid="{116B915E-7EDB-40A7-A434-0664760A6BE7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD40A25F-89FD-412B-80C8-448B450B453F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BF3863-22C7-48B8-A8B0-D45520FB6474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="244">
   <si>
     <t>Primary</t>
   </si>
@@ -1908,10 +1908,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7180504A-6B28-41F6-B85F-D857A0714427}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,7 +1919,7 @@
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>157</v>
       </c>
@@ -1938,8 +1938,11 @@
       <c r="G1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1961,8 +1964,11 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1984,8 +1990,11 @@
       <c r="G3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2007,8 +2016,11 @@
       <c r="G5">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2030,8 +2042,11 @@
       <c r="G6">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2053,8 +2068,11 @@
       <c r="G7">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2076,8 +2094,11 @@
       <c r="G8">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -2099,8 +2120,11 @@
       <c r="G10">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2122,8 +2146,11 @@
       <c r="G11">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2145,8 +2172,11 @@
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -2168,8 +2198,11 @@
       <c r="G14">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2191,8 +2224,11 @@
       <c r="G15">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -2214,8 +2250,11 @@
       <c r="G17">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -2237,8 +2276,11 @@
       <c r="G18">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -2260,8 +2302,11 @@
       <c r="G20">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>39</v>
       </c>
@@ -2283,8 +2328,11 @@
       <c r="G22">
         <v>1.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -2306,8 +2354,11 @@
       <c r="G23">
         <v>1.1499999999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -2329,8 +2380,11 @@
       <c r="G25">
         <v>1.05</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -2352,9 +2406,13 @@
       <c r="G26">
         <v>1.05</v>
       </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3708,7 +3766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F89DD17-A789-4A9A-885F-8377FED7E813}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>

--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BF3863-22C7-48B8-A8B0-D45520FB6474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BC114F-C7BF-4CA3-B81B-C1B255EECC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
@@ -1911,7 +1911,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2363,7 +2363,7 @@
         <v>41</v>
       </c>
       <c r="B25">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>15</v>
@@ -2378,7 +2378,7 @@
         <v>1.3</v>
       </c>
       <c r="G25">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -2392,7 +2392,7 @@
         <v>10</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D26">
         <v>80</v>

--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72BC114F-C7BF-4CA3-B81B-C1B255EECC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9930A554-CD0E-46D0-B0C3-9739CA5C9DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="244">
   <si>
     <t>Primary</t>
   </si>
@@ -1127,7 +1127,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DAB44D-10D6-48D9-84AA-13B1D653DD7B}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1853,6 +1853,9 @@
       <c r="E35" t="s">
         <v>15</v>
       </c>
+      <c r="F35" t="s">
+        <v>172</v>
+      </c>
       <c r="H35" t="s">
         <v>143</v>
       </c>
@@ -1910,7 +1913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7180504A-6B28-41F6-B85F-D857A0714427}">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>

--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9930A554-CD0E-46D0-B0C3-9739CA5C9DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9039E660-E973-4E26-A85A-0CB7A0964A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,7 +1739,7 @@
         <v>189</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
         <v>1</v>

--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9039E660-E973-4E26-A85A-0CB7A0964A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E72906-3EE6-476C-B591-26DCB08EECC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="245">
   <si>
     <t>Primary</t>
   </si>
@@ -772,6 +772,9 @@
   </si>
   <si>
     <t>Daedric_Greatsword</t>
+  </si>
+  <si>
+    <t>Breakdown</t>
   </si>
 </sst>
 </file>
@@ -1135,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DAB44D-10D6-48D9-84AA-13B1D653DD7B}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,10 +1151,11 @@
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>157</v>
       </c>
@@ -1171,10 +1175,13 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -1191,10 +1198,13 @@
         <v>172</v>
       </c>
       <c r="H2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1214,10 +1224,13 @@
         <v>181</v>
       </c>
       <c r="H3" t="s">
+        <v>171</v>
+      </c>
+      <c r="I3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1234,10 +1247,13 @@
         <v>172</v>
       </c>
       <c r="H4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1254,10 +1270,13 @@
         <v>172</v>
       </c>
       <c r="H5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>167</v>
       </c>
@@ -1274,10 +1293,13 @@
         <v>172</v>
       </c>
       <c r="H6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>155</v>
       </c>
@@ -1285,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -1293,7 +1315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1309,11 +1331,11 @@
       <c r="G9" t="s">
         <v>174</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1333,10 +1355,13 @@
         <v>174</v>
       </c>
       <c r="H10" t="s">
+        <v>173</v>
+      </c>
+      <c r="I10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1359,10 +1384,13 @@
         <v>175</v>
       </c>
       <c r="H11" t="s">
+        <v>172</v>
+      </c>
+      <c r="I11" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1376,10 +1404,13 @@
         <v>175</v>
       </c>
       <c r="H12" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1399,10 +1430,13 @@
         <v>174</v>
       </c>
       <c r="H13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>185</v>
       </c>
@@ -1422,10 +1456,13 @@
         <v>177</v>
       </c>
       <c r="H14" t="s">
+        <v>176</v>
+      </c>
+      <c r="I14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -1436,10 +1473,13 @@
         <v>177</v>
       </c>
       <c r="H15" t="s">
+        <v>176</v>
+      </c>
+      <c r="I15" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -1450,10 +1490,13 @@
         <v>177</v>
       </c>
       <c r="H16" t="s">
+        <v>176</v>
+      </c>
+      <c r="I16" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>186</v>
       </c>
@@ -1470,10 +1513,13 @@
         <v>174</v>
       </c>
       <c r="H17" t="s">
+        <v>174</v>
+      </c>
+      <c r="I17" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -1493,10 +1539,13 @@
         <v>173</v>
       </c>
       <c r="H18" t="s">
+        <v>181</v>
+      </c>
+      <c r="I18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1513,10 +1562,13 @@
         <v>20</v>
       </c>
       <c r="H19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -1533,10 +1585,13 @@
         <v>20</v>
       </c>
       <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1553,10 +1608,13 @@
         <v>21</v>
       </c>
       <c r="H21" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1576,10 +1634,13 @@
         <v>181</v>
       </c>
       <c r="H22" t="s">
+        <v>182</v>
+      </c>
+      <c r="I22" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1599,10 +1660,13 @@
         <v>181</v>
       </c>
       <c r="H23" t="s">
+        <v>178</v>
+      </c>
+      <c r="I23" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1622,10 +1686,13 @@
         <v>177</v>
       </c>
       <c r="H24" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>169</v>
       </c>
@@ -1641,11 +1708,11 @@
       <c r="G25" t="s">
         <v>176</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>187</v>
       </c>
@@ -1662,10 +1729,13 @@
         <v>177</v>
       </c>
       <c r="H26" t="s">
+        <v>177</v>
+      </c>
+      <c r="I26" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>188</v>
       </c>
@@ -1685,10 +1755,13 @@
         <v>174</v>
       </c>
       <c r="H27" t="s">
+        <v>179</v>
+      </c>
+      <c r="I27" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -1708,10 +1781,13 @@
         <v>183</v>
       </c>
       <c r="H28" t="s">
+        <v>172</v>
+      </c>
+      <c r="I28" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1731,10 +1807,13 @@
         <v>177</v>
       </c>
       <c r="H29" t="s">
+        <v>180</v>
+      </c>
+      <c r="I29" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>189</v>
       </c>
@@ -1754,10 +1833,13 @@
         <v>177</v>
       </c>
       <c r="H30" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>165</v>
       </c>
@@ -1774,10 +1856,13 @@
         <v>172</v>
       </c>
       <c r="H31" t="s">
+        <v>172</v>
+      </c>
+      <c r="I31" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>190</v>
       </c>
@@ -1800,10 +1885,13 @@
         <v>175</v>
       </c>
       <c r="H32" t="s">
+        <v>175</v>
+      </c>
+      <c r="I32" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -1820,10 +1908,13 @@
         <v>172</v>
       </c>
       <c r="H33" t="s">
+        <v>172</v>
+      </c>
+      <c r="I33" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -1834,10 +1925,13 @@
         <v>46</v>
       </c>
       <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -1857,10 +1951,13 @@
         <v>172</v>
       </c>
       <c r="H35" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>191</v>
       </c>
@@ -1880,10 +1977,13 @@
         <v>177</v>
       </c>
       <c r="H36" t="s">
+        <v>172</v>
+      </c>
+      <c r="I36" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -1899,7 +1999,7 @@
       <c r="E37" t="s">
         <v>184</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2421,10 +2521,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EB5A2C-AECE-4EC9-93ED-576D4200C6F9}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2435,7 +2535,7 @@
     <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2445,8 +2545,11 @@
       <c r="D1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -2459,8 +2562,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2579,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -2487,8 +2596,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2501,8 +2613,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -2515,8 +2630,11 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -2529,8 +2647,11 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -2543,8 +2664,11 @@
       <c r="D8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -2557,8 +2681,11 @@
       <c r="D9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -2571,8 +2698,11 @@
       <c r="D10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2585,8 +2715,11 @@
       <c r="D11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -2599,8 +2732,11 @@
       <c r="D12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -2613,8 +2749,11 @@
       <c r="D13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -2627,8 +2766,11 @@
       <c r="D14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2641,8 +2783,11 @@
       <c r="D15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>39</v>
       </c>
@@ -2655,8 +2800,11 @@
       <c r="D16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -2669,8 +2817,11 @@
       <c r="D17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2683,8 +2834,11 @@
       <c r="D18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2697,8 +2851,11 @@
       <c r="D19">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2711,8 +2868,11 @@
       <c r="D20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -2724,6 +2884,9 @@
       </c>
       <c r="D21">
         <v>2</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2E72906-3EE6-476C-B591-26DCB08EECC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80533E4-8FB1-4C4E-8A1D-60A0FA4BB378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="247">
   <si>
     <t>Primary</t>
   </si>
@@ -775,6 +775,12 @@
   </si>
   <si>
     <t>Breakdown</t>
+  </si>
+  <si>
+    <t>Leather Strips</t>
+  </si>
+  <si>
+    <t>Charcoal</t>
   </si>
 </sst>
 </file>
@@ -1140,8 +1146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DAB44D-10D6-48D9-84AA-13B1D653DD7B}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,7 +1390,7 @@
         <v>175</v>
       </c>
       <c r="H11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="I11" t="s">
         <v>133</v>
@@ -1429,9 +1435,6 @@
       <c r="F13" t="s">
         <v>174</v>
       </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
       <c r="I13" t="s">
         <v>135</v>
       </c>
@@ -1561,9 +1564,6 @@
       <c r="G19" t="s">
         <v>20</v>
       </c>
-      <c r="H19" t="s">
-        <v>20</v>
-      </c>
       <c r="I19" t="s">
         <v>133</v>
       </c>
@@ -1584,9 +1584,6 @@
       <c r="G20" t="s">
         <v>20</v>
       </c>
-      <c r="H20" t="s">
-        <v>20</v>
-      </c>
       <c r="I20" t="s">
         <v>133</v>
       </c>
@@ -1605,10 +1602,10 @@
         <v>0.2</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
+        <v>245</v>
       </c>
       <c r="I21" t="s">
         <v>133</v>
@@ -1708,6 +1705,9 @@
       <c r="G25" t="s">
         <v>176</v>
       </c>
+      <c r="H25" t="s">
+        <v>176</v>
+      </c>
       <c r="I25" t="s">
         <v>136</v>
       </c>
@@ -1924,9 +1924,6 @@
       <c r="G34" t="s">
         <v>46</v>
       </c>
-      <c r="H34" t="s">
-        <v>46</v>
-      </c>
       <c r="I34" t="s">
         <v>145</v>
       </c>
@@ -1998,6 +1995,9 @@
       </c>
       <c r="E37" t="s">
         <v>184</v>
+      </c>
+      <c r="H37" t="s">
+        <v>246</v>
       </c>
       <c r="I37" t="s">
         <v>133</v>

--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D80533E4-8FB1-4C4E-8A1D-60A0FA4BB378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EED4F5-4DEE-41D4-8601-34F58F3CA617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="298">
   <si>
     <t>Primary</t>
   </si>
@@ -243,544 +243,697 @@
     <t>Nettlebane</t>
   </si>
   <si>
+    <t>Daedric_Dagger</t>
+  </si>
+  <si>
+    <t>Ebony_Dagger</t>
+  </si>
+  <si>
+    <t>Horksbane</t>
+  </si>
+  <si>
+    <t>Ebony_Greatsword</t>
+  </si>
+  <si>
+    <t>Daedric_Mace</t>
+  </si>
+  <si>
+    <t>Glass_Sword</t>
+  </si>
+  <si>
+    <t>Silver_Sword</t>
+  </si>
+  <si>
+    <t>Spectral_Sword</t>
+  </si>
+  <si>
+    <t>Daedric_Sword</t>
+  </si>
+  <si>
+    <t>Ebony_Sword</t>
+  </si>
+  <si>
+    <t>NordHero_Sword</t>
+  </si>
+  <si>
+    <t>Dawnguard_WarAxe</t>
+  </si>
+  <si>
+    <t>Dawnguard_Warhammer</t>
+  </si>
+  <si>
+    <t>AetherialStaff</t>
+  </si>
+  <si>
+    <t>AncientDawnguardWarAxe</t>
+  </si>
+  <si>
+    <t>AncientDawnguardWarhammer</t>
+  </si>
+  <si>
+    <t>AurielsBow</t>
+  </si>
+  <si>
+    <t>AwakenedBladeOfWoe</t>
+  </si>
+  <si>
+    <t>BladeOfWoe</t>
+  </si>
+  <si>
+    <t>BrokenStaff</t>
+  </si>
+  <si>
+    <t>DragonPriestStaff</t>
+  </si>
+  <si>
+    <t>EyeOfMelka</t>
+  </si>
+  <si>
+    <t>GadnorsStaffOfCharming</t>
+  </si>
+  <si>
+    <t>GoraksTrollGuttingKnife</t>
+  </si>
+  <si>
+    <t>HalldirsStaff</t>
+  </si>
+  <si>
+    <t>HarkonsSword</t>
+  </si>
+  <si>
+    <t>HevnoraaksStaff</t>
+  </si>
+  <si>
+    <t>MaceOfMolagBal</t>
+  </si>
+  <si>
+    <t>MiraaksStaff</t>
+  </si>
+  <si>
+    <t>MiraaksSword</t>
+  </si>
+  <si>
+    <t>NightingaleBlade</t>
+  </si>
+  <si>
+    <t>Dwarven_Bow</t>
+  </si>
+  <si>
+    <t>Dragonbone_Dagger</t>
+  </si>
+  <si>
+    <t>Forsworn_Sword</t>
+  </si>
+  <si>
+    <t>Elven_Bow</t>
+  </si>
+  <si>
+    <t>Dwarven_Dagger</t>
+  </si>
+  <si>
+    <t>Perk</t>
+  </si>
+  <si>
+    <t>Craftsmanship</t>
+  </si>
+  <si>
+    <t>Daedric Smithing</t>
+  </si>
+  <si>
+    <t>Draconic Blacksmithing</t>
+  </si>
+  <si>
+    <t>Dwarven Smithing</t>
+  </si>
+  <si>
+    <t>Ebony Smithing</t>
+  </si>
+  <si>
+    <t>Elven Smithing</t>
+  </si>
+  <si>
+    <t>Glass Smithing</t>
+  </si>
+  <si>
+    <t>Golden Smithing</t>
+  </si>
+  <si>
+    <t>Madness Smithing</t>
+  </si>
+  <si>
+    <t>Orcish Smithing</t>
+  </si>
+  <si>
+    <t>Stalhrim Smithing</t>
+  </si>
+  <si>
+    <t>Advanced Blacksmithing</t>
+  </si>
+  <si>
+    <t>Arcane Craftsmanship</t>
+  </si>
+  <si>
+    <t>Amber Smithing</t>
+  </si>
+  <si>
+    <t>Dark Smithing</t>
+  </si>
+  <si>
+    <t>Divine</t>
+  </si>
+  <si>
+    <t>Skyforge Smithing</t>
+  </si>
+  <si>
+    <t>Silver_Greatsword</t>
+  </si>
+  <si>
+    <t>Steel_Greatsword</t>
+  </si>
+  <si>
+    <t>Glass_Bow</t>
+  </si>
+  <si>
+    <t>Steel_Mace</t>
+  </si>
+  <si>
+    <t>Steel_Warhammer</t>
+  </si>
+  <si>
+    <t>Bound</t>
+  </si>
+  <si>
+    <t>BoundMystic</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Reach</t>
+  </si>
+  <si>
+    <t>Stagger</t>
+  </si>
+  <si>
+    <t>Alikr</t>
+  </si>
+  <si>
+    <t>Boneshaver</t>
+  </si>
+  <si>
+    <t>Alikr_Sword</t>
+  </si>
+  <si>
+    <t>Redguard</t>
+  </si>
+  <si>
+    <t>Akaviri</t>
+  </si>
+  <si>
+    <t>Akaviri_Sword</t>
+  </si>
+  <si>
+    <t>Irkngthand</t>
+  </si>
+  <si>
+    <t>FangOfHaynekhtnamet</t>
+  </si>
+  <si>
+    <t>Refined Amber</t>
+  </si>
+  <si>
+    <t>Steel Ingot</t>
+  </si>
+  <si>
+    <t>Quicksilver Ingot</t>
+  </si>
+  <si>
+    <t>Ebony Ingot</t>
+  </si>
+  <si>
+    <t>Silver Ingot</t>
+  </si>
+  <si>
+    <t>Dwarven Metal Ingot</t>
+  </si>
+  <si>
+    <t>Iron Ingot</t>
+  </si>
+  <si>
+    <t>Gold Ingot</t>
+  </si>
+  <si>
+    <t>Madness Ingot</t>
+  </si>
+  <si>
+    <t>Orichalcum Ingot</t>
+  </si>
+  <si>
+    <t>Refined Moonstone</t>
+  </si>
+  <si>
+    <t>Refined Malachite</t>
+  </si>
+  <si>
+    <t>Corundum Ingot</t>
+  </si>
+  <si>
+    <t>Firewood</t>
+  </si>
+  <si>
+    <t>Dwarven</t>
+  </si>
+  <si>
+    <t>Ebony</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Madness</t>
+  </si>
+  <si>
+    <t>Quicksilver</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>DivineWrath</t>
+  </si>
+  <si>
+    <t>ImperialLoyalist</t>
+  </si>
+  <si>
+    <t>BlackthornFamily</t>
+  </si>
+  <si>
+    <t>Blooded</t>
+  </si>
+  <si>
+    <t>Duskward</t>
+  </si>
+  <si>
+    <t>Ulag's Legacy</t>
+  </si>
+  <si>
+    <t>Warmonger Armory</t>
+  </si>
+  <si>
+    <t>Lost Paladins of the Divines Wrath Armor</t>
+  </si>
+  <si>
+    <t>Talos Housecarl Armor Pack﻿</t>
+  </si>
+  <si>
+    <t>Hoth</t>
+  </si>
+  <si>
+    <t>Pathfinder</t>
+  </si>
+  <si>
+    <t>SoulRipper</t>
+  </si>
+  <si>
+    <t>AldmeriSword</t>
+  </si>
+  <si>
+    <t>Crescent</t>
+  </si>
+  <si>
+    <t>Dragonfang</t>
+  </si>
+  <si>
+    <t>FoeBreaker</t>
+  </si>
+  <si>
+    <t>Hafyllbrand</t>
+  </si>
+  <si>
+    <t>HammerOfLight</t>
+  </si>
+  <si>
+    <t>Jolhert</t>
+  </si>
+  <si>
+    <t>Judgement</t>
+  </si>
+  <si>
+    <t>Malice</t>
+  </si>
+  <si>
+    <t>NorthernHonor</t>
+  </si>
+  <si>
+    <t>Regnving</t>
+  </si>
+  <si>
+    <t>Rikvard</t>
+  </si>
+  <si>
+    <t>Shard</t>
+  </si>
+  <si>
+    <t>Silverblood</t>
+  </si>
+  <si>
+    <t>Smile</t>
+  </si>
+  <si>
+    <t>Snaerving</t>
+  </si>
+  <si>
+    <t>Stormbird</t>
+  </si>
+  <si>
+    <t>Elven_Sword</t>
+  </si>
+  <si>
+    <t>Stalhrim_WarAxe</t>
+  </si>
+  <si>
+    <t>SwordOfDragonsreach</t>
+  </si>
+  <si>
+    <t>Silver_WarAxe</t>
+  </si>
+  <si>
+    <t>Steel_Sword</t>
+  </si>
+  <si>
+    <t>Stalhrim_Greatsword</t>
+  </si>
+  <si>
+    <t>Ebony_Shortsword</t>
+  </si>
+  <si>
+    <t>Ebony_WarAxe</t>
+  </si>
+  <si>
+    <t>Steel_WarAxe</t>
+  </si>
+  <si>
+    <t>Akaviri_Katana</t>
+  </si>
+  <si>
+    <t>SkyforgeSteel_Warhammer</t>
+  </si>
+  <si>
+    <t>BlackBriarDagger</t>
+  </si>
+  <si>
+    <t>EsbernsKatana</t>
+  </si>
+  <si>
+    <t>HarbingersAxe</t>
+  </si>
+  <si>
+    <t>ShalidorsDagger</t>
+  </si>
+  <si>
+    <t>Elven_Shortsword</t>
+  </si>
+  <si>
+    <t>Dwarven_Shortsword</t>
+  </si>
+  <si>
+    <t>CarcettesWarhammer</t>
+  </si>
+  <si>
+    <t>NelothsStaff</t>
+  </si>
+  <si>
+    <t>YokundasEdge</t>
+  </si>
+  <si>
+    <t>Redguard_Greatsword</t>
+  </si>
+  <si>
+    <t>ZahkriiDoDovahkiin</t>
+  </si>
+  <si>
+    <t>Daedric_Greatsword</t>
+  </si>
+  <si>
+    <t>Breakdown</t>
+  </si>
+  <si>
+    <t>Leather Strips</t>
+  </si>
+  <si>
+    <t>Charcoal</t>
+  </si>
+  <si>
+    <t>Aegisbane</t>
+  </si>
+  <si>
+    <t>Iron_Warhammer</t>
+  </si>
+  <si>
+    <t>AlessandrasDagger</t>
+  </si>
+  <si>
+    <t>Iron_Dagger</t>
+  </si>
+  <si>
+    <t>AmrensFamilySword</t>
+  </si>
+  <si>
+    <t>AngisBow</t>
+  </si>
+  <si>
+    <t>Steel_Bow</t>
+  </si>
+  <si>
+    <t>BalgruufsGreatsword</t>
+  </si>
+  <si>
+    <t>Bloodthorn</t>
+  </si>
+  <si>
+    <t>Steel_Dagger</t>
+  </si>
+  <si>
+    <t>BolarsOathblade</t>
+  </si>
+  <si>
+    <t>BorvirsDagger</t>
+  </si>
+  <si>
+    <t>Elven_Dagger</t>
+  </si>
+  <si>
+    <t>BowOfTheHunt</t>
+  </si>
+  <si>
+    <t>BriarheartGeis</t>
+  </si>
+  <si>
+    <t>Forsworn_WarAxe</t>
+  </si>
+  <si>
+    <t>DravinsBow</t>
+  </si>
+  <si>
+    <t>Eduj</t>
+  </si>
+  <si>
+    <t>FirinielsEnd</t>
+  </si>
+  <si>
+    <t>FrokisBow</t>
+  </si>
+  <si>
+    <t>Iron_Bow</t>
+  </si>
+  <si>
+    <t>GauldurBlackblade</t>
+  </si>
+  <si>
+    <t>AncientNordHoned_Sword</t>
+  </si>
+  <si>
+    <t>GauldurBlackbow</t>
+  </si>
+  <si>
+    <t>AncientNordHoned_Bow</t>
+  </si>
+  <si>
+    <t>GharolsSword</t>
+  </si>
+  <si>
+    <t>Orcish_Sword</t>
+  </si>
+  <si>
+    <t>GhorbashsAncestralAxe</t>
+  </si>
+  <si>
+    <t>Iron_WarAxe</t>
+  </si>
+  <si>
+    <t>Grimsever</t>
+  </si>
+  <si>
+    <t>HarraldsSword</t>
+  </si>
+  <si>
+    <t>HerebanesCourage</t>
+  </si>
+  <si>
+    <t>HjaltisSword</t>
+  </si>
+  <si>
+    <t>MothPriestKatana</t>
+  </si>
+  <si>
+    <t>Iron_Sword</t>
+  </si>
+  <si>
+    <t>NightingaleBow</t>
+  </si>
+  <si>
+    <t>Ebony_Bow</t>
+  </si>
+  <si>
+    <t>Okin</t>
+  </si>
+  <si>
+    <t>PrelatesDagger</t>
+  </si>
+  <si>
+    <t>PrelatesMace</t>
+  </si>
+  <si>
+    <t>Elven_Mace</t>
+  </si>
+  <si>
+    <t>QueenFreydisSword</t>
+  </si>
+  <si>
+    <t>RahgotsStaff</t>
+  </si>
+  <si>
     <t>RedEaglesBane</t>
   </si>
   <si>
     <t>RedEaglesFury</t>
   </si>
   <si>
+    <t>RuefulAxe</t>
+  </si>
+  <si>
+    <t>Silver_Battleaxe</t>
+  </si>
+  <si>
+    <t>RundisDagger</t>
+  </si>
+  <si>
+    <t>RustyMace</t>
+  </si>
+  <si>
+    <t>SanguineRose</t>
+  </si>
+  <si>
+    <t>ShagrolsWarhammer</t>
+  </si>
+  <si>
+    <t>Orcish_Warhammer</t>
+  </si>
+  <si>
+    <t>SildsStaff</t>
+  </si>
+  <si>
+    <t>SkullOfCorruption</t>
+  </si>
+  <si>
     <t>Soulrender</t>
   </si>
   <si>
+    <t>StaffOfArcaneAuthority</t>
+  </si>
+  <si>
+    <t>StaffOfHagsWrath</t>
+  </si>
+  <si>
+    <t>StaffOfJyrikGauldurson</t>
+  </si>
+  <si>
+    <t>StaffOfMagnus</t>
+  </si>
+  <si>
+    <t>StaffOfRuunvald</t>
+  </si>
+  <si>
+    <t>StaffOfTandil</t>
+  </si>
+  <si>
+    <t>SteelBattleaxeOfFierySouls</t>
+  </si>
+  <si>
     <t>Stormfang</t>
   </si>
   <si>
+    <t>TheLonghammer</t>
+  </si>
+  <si>
+    <t>ThePaleBlade</t>
+  </si>
+  <si>
+    <t>TheWoodsmansFriend</t>
+  </si>
+  <si>
+    <t>Iron_Battleaxe</t>
+  </si>
+  <si>
+    <t>Trollsbane</t>
+  </si>
+  <si>
+    <t>ValdrsLuckyDagger</t>
+  </si>
+  <si>
     <t>Volendrung</t>
   </si>
   <si>
+    <t>Daedric_Warhammer</t>
+  </si>
+  <si>
+    <t>Wabbajack</t>
+  </si>
+  <si>
+    <t>WabbajackDA15</t>
+  </si>
+  <si>
     <t>Windshear</t>
   </si>
   <si>
+    <t>Redguard_Sword</t>
+  </si>
+  <si>
+    <t>Wuuthrad</t>
+  </si>
+  <si>
+    <t>Ebony_Battleaxe</t>
+  </si>
+  <si>
     <t>Zephyr</t>
   </si>
   <si>
-    <t>RuefulAxe</t>
-  </si>
-  <si>
-    <t>Wuuthrad</t>
-  </si>
-  <si>
-    <t>Ebony_Battleaxe</t>
-  </si>
-  <si>
-    <t>Daedric_Dagger</t>
-  </si>
-  <si>
-    <t>Ebony_Dagger</t>
-  </si>
-  <si>
-    <t>Horksbane</t>
-  </si>
-  <si>
-    <t>RustyMace</t>
-  </si>
-  <si>
-    <t>Ebony_Greatsword</t>
-  </si>
-  <si>
-    <t>Daedric_Mace</t>
-  </si>
-  <si>
-    <t>Glass_Sword</t>
-  </si>
-  <si>
-    <t>Silver_Sword</t>
-  </si>
-  <si>
-    <t>Spectral_Sword</t>
-  </si>
-  <si>
-    <t>Daedric_Sword</t>
-  </si>
-  <si>
-    <t>Ebony_Sword</t>
-  </si>
-  <si>
-    <t>NordHero_Sword</t>
-  </si>
-  <si>
-    <t>Dawnguard_WarAxe</t>
-  </si>
-  <si>
-    <t>Orcish_Warhammer</t>
-  </si>
-  <si>
-    <t>Dawnguard_Warhammer</t>
-  </si>
-  <si>
-    <t>AetherialStaff</t>
-  </si>
-  <si>
-    <t>AncientDawnguardWarAxe</t>
-  </si>
-  <si>
-    <t>AncientDawnguardWarhammer</t>
-  </si>
-  <si>
-    <t>AurielsBow</t>
-  </si>
-  <si>
-    <t>AwakenedBladeOfWoe</t>
-  </si>
-  <si>
-    <t>BladeOfWoe</t>
-  </si>
-  <si>
-    <t>BrokenStaff</t>
-  </si>
-  <si>
-    <t>DragonPriestStaff</t>
-  </si>
-  <si>
-    <t>EyeOfMelka</t>
-  </si>
-  <si>
-    <t>GadnorsStaffOfCharming</t>
-  </si>
-  <si>
-    <t>GoraksTrollGuttingKnife</t>
-  </si>
-  <si>
-    <t>HalldirsStaff</t>
-  </si>
-  <si>
-    <t>HarkonsSword</t>
-  </si>
-  <si>
-    <t>HevnoraaksStaff</t>
-  </si>
-  <si>
-    <t>MaceOfMolagBal</t>
-  </si>
-  <si>
-    <t>MiraaksStaff</t>
-  </si>
-  <si>
-    <t>MiraaksSword</t>
-  </si>
-  <si>
-    <t>NightingaleBlade</t>
-  </si>
-  <si>
-    <t>NightingaleBow</t>
-  </si>
-  <si>
-    <t>RahgotsStaff</t>
-  </si>
-  <si>
-    <t>SanguineRose</t>
-  </si>
-  <si>
-    <t>SildsStaff</t>
-  </si>
-  <si>
-    <t>SkullOfCorruption</t>
-  </si>
-  <si>
-    <t>StaffOfArcaneAuthority</t>
-  </si>
-  <si>
-    <t>StaffOfHagsWrath</t>
-  </si>
-  <si>
-    <t>StaffOfJyrikGauldurson</t>
-  </si>
-  <si>
-    <t>StaffOfMagnus</t>
-  </si>
-  <si>
-    <t>StaffOfRuunvald</t>
-  </si>
-  <si>
-    <t>StaffOfTandil</t>
-  </si>
-  <si>
-    <t>TheLonghammer</t>
-  </si>
-  <si>
-    <t>Wabbajack</t>
-  </si>
-  <si>
-    <t>WabbajackDA15</t>
-  </si>
-  <si>
-    <t>Dwarven_Bow</t>
-  </si>
-  <si>
-    <t>Daedric_Warhammer</t>
-  </si>
-  <si>
-    <t>Dragonbone_Dagger</t>
-  </si>
-  <si>
-    <t>Forsworn_Sword</t>
-  </si>
-  <si>
-    <t>Ebony_Bow</t>
-  </si>
-  <si>
-    <t>Elven_Bow</t>
-  </si>
-  <si>
-    <t>Dwarven_Dagger</t>
-  </si>
-  <si>
-    <t>Silver_Battleaxe</t>
-  </si>
-  <si>
-    <t>Perk</t>
-  </si>
-  <si>
-    <t>Craftsmanship</t>
-  </si>
-  <si>
-    <t>Daedric Smithing</t>
-  </si>
-  <si>
-    <t>Draconic Blacksmithing</t>
-  </si>
-  <si>
-    <t>Dwarven Smithing</t>
-  </si>
-  <si>
-    <t>Ebony Smithing</t>
-  </si>
-  <si>
-    <t>Elven Smithing</t>
-  </si>
-  <si>
-    <t>Glass Smithing</t>
-  </si>
-  <si>
-    <t>Golden Smithing</t>
-  </si>
-  <si>
-    <t>Madness Smithing</t>
-  </si>
-  <si>
-    <t>Orcish Smithing</t>
-  </si>
-  <si>
-    <t>Stalhrim Smithing</t>
-  </si>
-  <si>
-    <t>Advanced Blacksmithing</t>
-  </si>
-  <si>
-    <t>Arcane Craftsmanship</t>
-  </si>
-  <si>
-    <t>Amber Smithing</t>
-  </si>
-  <si>
-    <t>Dark Smithing</t>
-  </si>
-  <si>
-    <t>Divine</t>
-  </si>
-  <si>
-    <t>Skyforge Smithing</t>
-  </si>
-  <si>
-    <t>Silver_Greatsword</t>
-  </si>
-  <si>
-    <t>Steel_Greatsword</t>
-  </si>
-  <si>
-    <t>Glass_Bow</t>
-  </si>
-  <si>
-    <t>Steel_Mace</t>
-  </si>
-  <si>
-    <t>Steel_Warhammer</t>
-  </si>
-  <si>
-    <t>Bound</t>
-  </si>
-  <si>
-    <t>BoundMystic</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>Reach</t>
-  </si>
-  <si>
-    <t>Stagger</t>
-  </si>
-  <si>
-    <t>Alikr</t>
-  </si>
-  <si>
-    <t>Boneshaver</t>
-  </si>
-  <si>
-    <t>Alikr_Sword</t>
-  </si>
-  <si>
-    <t>Redguard</t>
-  </si>
-  <si>
-    <t>Redguard_Sword</t>
-  </si>
-  <si>
-    <t>Akaviri</t>
-  </si>
-  <si>
-    <t>Akaviri_Sword</t>
-  </si>
-  <si>
-    <t>Irkngthand</t>
-  </si>
-  <si>
-    <t>FangOfHaynekhtnamet</t>
-  </si>
-  <si>
-    <t>Refined Amber</t>
-  </si>
-  <si>
-    <t>Steel Ingot</t>
-  </si>
-  <si>
-    <t>Quicksilver Ingot</t>
-  </si>
-  <si>
-    <t>Ebony Ingot</t>
-  </si>
-  <si>
-    <t>Silver Ingot</t>
-  </si>
-  <si>
-    <t>Dwarven Metal Ingot</t>
-  </si>
-  <si>
-    <t>Iron Ingot</t>
-  </si>
-  <si>
-    <t>Gold Ingot</t>
-  </si>
-  <si>
-    <t>Madness Ingot</t>
-  </si>
-  <si>
-    <t>Orichalcum Ingot</t>
-  </si>
-  <si>
-    <t>Refined Moonstone</t>
-  </si>
-  <si>
-    <t>Refined Malachite</t>
-  </si>
-  <si>
-    <t>Corundum Ingot</t>
-  </si>
-  <si>
-    <t>Firewood</t>
-  </si>
-  <si>
-    <t>Dwarven</t>
-  </si>
-  <si>
-    <t>Ebony</t>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>Madness</t>
-  </si>
-  <si>
-    <t>Quicksilver</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Steel</t>
-  </si>
-  <si>
-    <t>DivineWrath</t>
-  </si>
-  <si>
-    <t>ImperialLoyalist</t>
-  </si>
-  <si>
-    <t>BlackthornFamily</t>
-  </si>
-  <si>
-    <t>Blooded</t>
-  </si>
-  <si>
-    <t>Duskward</t>
-  </si>
-  <si>
-    <t>Ulag's Legacy</t>
-  </si>
-  <si>
-    <t>Warmonger Armory</t>
-  </si>
-  <si>
-    <t>Lost Paladins of the Divines Wrath Armor</t>
-  </si>
-  <si>
-    <t>Talos Housecarl Armor Pack﻿</t>
-  </si>
-  <si>
-    <t>Hoth</t>
-  </si>
-  <si>
-    <t>Pathfinder</t>
-  </si>
-  <si>
-    <t>SoulRipper</t>
-  </si>
-  <si>
-    <t>AldmeriSword</t>
-  </si>
-  <si>
-    <t>Crescent</t>
-  </si>
-  <si>
-    <t>Dragonfang</t>
-  </si>
-  <si>
-    <t>FoeBreaker</t>
-  </si>
-  <si>
-    <t>Hafyllbrand</t>
-  </si>
-  <si>
-    <t>HammerOfLight</t>
-  </si>
-  <si>
-    <t>Jolhert</t>
-  </si>
-  <si>
-    <t>Judgement</t>
-  </si>
-  <si>
-    <t>Malice</t>
-  </si>
-  <si>
-    <t>NorthernHonor</t>
-  </si>
-  <si>
-    <t>Regnving</t>
-  </si>
-  <si>
-    <t>Rikvard</t>
-  </si>
-  <si>
-    <t>Shard</t>
-  </si>
-  <si>
-    <t>Silverblood</t>
-  </si>
-  <si>
-    <t>Smile</t>
-  </si>
-  <si>
-    <t>Snaerving</t>
-  </si>
-  <si>
-    <t>Stormbird</t>
-  </si>
-  <si>
-    <t>Elven_Sword</t>
-  </si>
-  <si>
-    <t>Stalhrim_WarAxe</t>
-  </si>
-  <si>
-    <t>SwordOfDragonsreach</t>
-  </si>
-  <si>
-    <t>Silver_WarAxe</t>
-  </si>
-  <si>
-    <t>Steel_Sword</t>
-  </si>
-  <si>
-    <t>Stalhrim_Greatsword</t>
-  </si>
-  <si>
-    <t>Ebony_Shortsword</t>
-  </si>
-  <si>
-    <t>Ebony_WarAxe</t>
-  </si>
-  <si>
-    <t>Steel_WarAxe</t>
-  </si>
-  <si>
-    <t>Akaviri_Katana</t>
-  </si>
-  <si>
-    <t>SkyforgeSteel_Warhammer</t>
-  </si>
-  <si>
-    <t>BlackBriarDagger</t>
-  </si>
-  <si>
-    <t>EsbernsKatana</t>
-  </si>
-  <si>
-    <t>HarbingersAxe</t>
-  </si>
-  <si>
-    <t>ShalidorsDagger</t>
-  </si>
-  <si>
-    <t>Elven_Shortsword</t>
-  </si>
-  <si>
-    <t>Dwarven_Shortsword</t>
-  </si>
-  <si>
-    <t>CarcettesWarhammer</t>
-  </si>
-  <si>
-    <t>NelothsStaff</t>
-  </si>
-  <si>
-    <t>YokundasEdge</t>
-  </si>
-  <si>
-    <t>Redguard_Greatsword</t>
-  </si>
-  <si>
-    <t>ZahkriiDoDovahkiin</t>
-  </si>
-  <si>
-    <t>Daedric_Greatsword</t>
-  </si>
-  <si>
-    <t>Breakdown</t>
-  </si>
-  <si>
-    <t>Leather Strips</t>
-  </si>
-  <si>
-    <t>Charcoal</t>
+    <t>Steel_Battleaxe</t>
+  </si>
+  <si>
+    <t>NordHero_WarAxe</t>
+  </si>
+  <si>
+    <t>Glass_Greatsword</t>
   </si>
 </sst>
 </file>
@@ -848,9 +1001,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -888,7 +1041,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -994,7 +1147,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1136,7 +1289,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1146,7 +1299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DAB44D-10D6-48D9-84AA-13B1D653DD7B}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -1163,10 +1316,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
@@ -1181,15 +1334,15 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1201,13 +1354,13 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="I2" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1224,16 +1377,16 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="H3" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="I3" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1250,13 +1403,13 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G4" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="H4" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="I4" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1273,18 +1426,18 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G5" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="H5" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="I5" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1296,18 +1449,18 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="H6" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1315,7 +1468,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1335,10 +1488,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1355,16 +1508,16 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="F10" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="H10" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="I10" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1381,19 +1534,19 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="F11" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="G11" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="H11" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1401,19 +1554,19 @@
         <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="F12" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="G12" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="H12" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1433,15 +1586,15 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1453,16 +1606,16 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="F14" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="H14" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="I14" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1470,16 +1623,16 @@
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="F15" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="H15" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1487,21 +1640,21 @@
         <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="F16" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="H16" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -1513,13 +1666,13 @@
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="H17" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="I17" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1536,16 +1689,16 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="F18" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="H18" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="I18" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1565,7 +1718,7 @@
         <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1585,7 +1738,7 @@
         <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1602,13 +1755,13 @@
         <v>0.2</v>
       </c>
       <c r="G21" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="H21" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="I21" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1625,16 +1778,16 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="H22" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="I22" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1651,16 +1804,16 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="H23" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="I23" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1677,21 +1830,21 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="E24" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="H24" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="I24" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1703,18 +1856,18 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="H25" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
       <c r="I25" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="B26">
         <v>-1</v>
@@ -1726,18 +1879,18 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E26" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="H26" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="I26" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1749,16 +1902,16 @@
         <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="F27" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
       <c r="H27" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="I27" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1775,16 +1928,16 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="F28" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="H28" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="I28" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1801,21 +1954,21 @@
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="F29" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="H29" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="I29" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1827,21 +1980,21 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="F30" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="H30" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="I30" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1853,18 +2006,18 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="H31" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="I31" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1876,19 +2029,19 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="F32" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="G32" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="H32" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="I32" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1905,13 +2058,13 @@
         <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="H33" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="I33" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1925,7 +2078,7 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1945,18 +2098,18 @@
         <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1968,16 +2121,16 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="F36" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="H36" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="I36" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1994,13 +2147,13 @@
         <v>0.25</v>
       </c>
       <c r="E37" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="H37" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="I37" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2024,22 +2177,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="F1" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="G1" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
@@ -2546,7 +2699,7 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -2896,10 +3049,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E600040-C4D1-44DA-89A7-D165F82BA4A4}">
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I123"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2914,61 +3067,49 @@
         <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="G1" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="H1" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="I1" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>217</v>
+      </c>
+      <c r="B2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>5000</v>
-      </c>
-      <c r="I3" t="b">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>5000</v>
+        <v>220</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -2976,27 +3117,24 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
       </c>
       <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>5000</v>
@@ -3007,10 +3145,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>5000</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -3018,16 +3162,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>222</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>-2</v>
+        <v>223</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -3035,21 +3173,30 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s">
-        <v>150</v>
+        <v>68</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>-2</v>
+      </c>
+      <c r="E10">
+        <v>5000</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -3057,13 +3204,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11">
-        <v>5000</v>
+        <v>122</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -3071,15 +3215,27 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>52</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>68</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>-2</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -3087,19 +3243,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>-1</v>
-      </c>
-      <c r="E14">
-        <v>5000</v>
+        <v>76</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -3107,36 +3254,21 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>80000</v>
+        <v>121</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>225</v>
       </c>
       <c r="B16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <v>5000</v>
+        <v>226</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -3144,15 +3276,24 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>227</v>
+      </c>
+      <c r="B17" t="s">
+        <v>200</v>
+      </c>
+      <c r="I17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>135</v>
+      </c>
+      <c r="E18">
+        <v>5000</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -3160,35 +3301,32 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19">
-        <v>-3</v>
-      </c>
-      <c r="E19">
-        <v>80000</v>
+        <v>229</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>230</v>
+      </c>
+      <c r="B20" t="s">
+        <v>223</v>
+      </c>
+      <c r="I20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
-      </c>
-      <c r="E21">
-        <v>5000</v>
+        <v>232</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -3196,18 +3334,15 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E23">
-        <v>5000</v>
+        <v>125</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -3215,10 +3350,19 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>72</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <v>5000</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -3226,66 +3370,63 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="C25">
-        <v>4</v>
-      </c>
-      <c r="D25">
         <v>5</v>
       </c>
       <c r="E25">
-        <v>1000</v>
+        <v>80000</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>5000</v>
+      </c>
+      <c r="I26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>-8</v>
-      </c>
-      <c r="E27">
-        <v>5000</v>
-      </c>
-      <c r="F27">
-        <v>-0.125</v>
-      </c>
-      <c r="G27">
-        <v>0.05</v>
-      </c>
-      <c r="I27" t="b">
-        <v>1</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>233</v>
+      </c>
+      <c r="B28" t="s">
+        <v>223</v>
+      </c>
+      <c r="I28" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -3293,150 +3434,117 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>70</v>
+      </c>
+      <c r="D30">
+        <v>-3</v>
       </c>
       <c r="E30">
-        <v>5000</v>
+        <v>80000</v>
       </c>
       <c r="I30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>234</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
-      </c>
-      <c r="D31">
-        <v>3.5</v>
-      </c>
-      <c r="E31">
-        <v>80000</v>
+        <v>77</v>
       </c>
       <c r="I31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>106</v>
-      </c>
-      <c r="B32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32">
-        <v>80000</v>
-      </c>
-      <c r="I32" t="b">
-        <v>1</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E33">
-        <v>80000</v>
+        <v>5000</v>
       </c>
       <c r="I33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>235</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="I34" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>236</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>237</v>
       </c>
       <c r="I35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36">
-        <v>5000</v>
-      </c>
-      <c r="I36" t="b">
-        <v>0</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>238</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>-4</v>
-      </c>
-      <c r="E37">
-        <v>5000</v>
+        <v>239</v>
       </c>
       <c r="I37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>240</v>
       </c>
       <c r="B38" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
       <c r="I38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>242</v>
+      </c>
+      <c r="B39" t="s">
+        <v>243</v>
+      </c>
+      <c r="I39" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>244</v>
       </c>
       <c r="B40" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40">
-        <v>5000</v>
-      </c>
-      <c r="F40">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G40">
-        <v>7.4999999999999997E-2</v>
+        <v>245</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -3444,19 +3552,13 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C41">
-        <v>-3</v>
-      </c>
-      <c r="F41">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G41">
-        <v>7.4999999999999997E-2</v>
+        <v>74</v>
+      </c>
+      <c r="E41">
+        <v>5000</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -3464,50 +3566,83 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C42">
-        <v>7</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42">
-        <v>80000</v>
+        <v>123</v>
       </c>
       <c r="I42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>90</v>
+      </c>
+      <c r="B43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>1000</v>
+      </c>
+      <c r="I43" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>246</v>
+      </c>
+      <c r="B44" t="s">
+        <v>297</v>
+      </c>
+      <c r="I44" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <v>-8</v>
+      </c>
+      <c r="E46">
+        <v>5000</v>
+      </c>
+      <c r="F46">
+        <v>-0.125</v>
+      </c>
+      <c r="G46">
+        <v>0.05</v>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>247</v>
       </c>
       <c r="B47" t="s">
-        <v>87</v>
+        <v>251</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -3515,95 +3650,143 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>248</v>
+      </c>
+      <c r="B48" t="s">
+        <v>191</v>
+      </c>
+      <c r="I48" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>117</v>
+        <v>249</v>
+      </c>
+      <c r="B50" t="s">
+        <v>195</v>
+      </c>
+      <c r="I50" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>69</v>
+      </c>
+      <c r="B51" t="s">
+        <v>124</v>
+      </c>
+      <c r="I51" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E52">
+        <v>5000</v>
+      </c>
+      <c r="I52" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>64</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>3.5</v>
+      </c>
+      <c r="E53">
+        <v>80000</v>
+      </c>
+      <c r="I53" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>71</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+      <c r="E54">
+        <v>80000</v>
       </c>
       <c r="I54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55">
-        <v>-9</v>
-      </c>
-      <c r="F55">
-        <v>0.2</v>
+        <v>67</v>
+      </c>
+      <c r="E55">
+        <v>80000</v>
       </c>
       <c r="I55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" t="s">
-        <v>125</v>
-      </c>
-      <c r="D56">
-        <v>5</v>
-      </c>
-      <c r="E56">
-        <v>80000</v>
-      </c>
-      <c r="I56" t="b">
-        <v>1</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>122</v>
+        <v>96</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+      <c r="I57" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>123</v>
+        <v>250</v>
+      </c>
+      <c r="B58" t="s">
+        <v>200</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>68</v>
+      </c>
+      <c r="E59">
+        <v>5000</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -3611,41 +3794,52 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
         <v>76</v>
       </c>
       <c r="C60">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>-4</v>
       </c>
       <c r="E60">
-        <v>80000</v>
+        <v>5000</v>
       </c>
       <c r="I60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="B61" t="s">
-        <v>124</v>
+        <v>253</v>
       </c>
       <c r="I61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>254</v>
+      </c>
+      <c r="B62" t="s">
+        <v>296</v>
+      </c>
+      <c r="I62" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="B63" t="s">
-        <v>221</v>
-      </c>
-      <c r="E63">
-        <v>1350</v>
+        <v>229</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -3653,10 +3847,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
@@ -3664,10 +3858,13 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>195</v>
+      </c>
+      <c r="E65">
+        <v>450</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -3675,21 +3872,24 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>205</v>
-      </c>
-      <c r="B66" t="s">
-        <v>222</v>
-      </c>
-      <c r="I66" t="b">
-        <v>0</v>
+        <v>259</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="B67" t="s">
-        <v>151</v>
+        <v>77</v>
+      </c>
+      <c r="E67">
+        <v>5000</v>
+      </c>
+      <c r="F67">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G67">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I67" t="b">
         <v>0</v>
@@ -3697,10 +3897,19 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="B68" t="s">
-        <v>230</v>
+        <v>77</v>
+      </c>
+      <c r="C68">
+        <v>-3</v>
+      </c>
+      <c r="F68">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G68">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I68" t="b">
         <v>0</v>
@@ -3708,21 +3917,30 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>207</v>
+        <v>262</v>
       </c>
       <c r="B69" t="s">
-        <v>231</v>
+        <v>263</v>
+      </c>
+      <c r="C69">
+        <v>7</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>80000</v>
       </c>
       <c r="I69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>208</v>
+        <v>264</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="I70" t="b">
         <v>0</v>
@@ -3730,35 +3948,20 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>209</v>
-      </c>
-      <c r="B71" t="s">
-        <v>91</v>
-      </c>
-      <c r="I71" t="b">
-        <v>0</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>234</v>
-      </c>
-      <c r="B72" t="s">
-        <v>224</v>
-      </c>
-      <c r="E72">
-        <v>5000</v>
-      </c>
-      <c r="I72" t="b">
-        <v>0</v>
+        <v>266</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>210</v>
+        <v>267</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="I73" t="b">
         <v>0</v>
@@ -3766,103 +3969,61 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>211</v>
-      </c>
-      <c r="B74" t="s">
-        <v>225</v>
-      </c>
-      <c r="I74" t="b">
-        <v>0</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>212</v>
-      </c>
-      <c r="B75" t="s">
-        <v>227</v>
-      </c>
-      <c r="I75" t="b">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>239</v>
+        <v>271</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="I76" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>213</v>
-      </c>
-      <c r="B77" t="s">
-        <v>225</v>
-      </c>
-      <c r="I77" t="b">
-        <v>0</v>
+        <v>272</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>214</v>
-      </c>
-      <c r="B78" t="s">
-        <v>228</v>
-      </c>
-      <c r="I78" t="b">
-        <v>0</v>
+        <v>273</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>215</v>
-      </c>
-      <c r="B79" t="s">
-        <v>229</v>
-      </c>
-      <c r="I79" t="b">
-        <v>0</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>235</v>
-      </c>
-      <c r="B80" t="s">
-        <v>78</v>
-      </c>
-      <c r="I80" t="b">
-        <v>0</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>216</v>
-      </c>
-      <c r="B81" t="s">
-        <v>237</v>
-      </c>
-      <c r="I81" t="b">
-        <v>0</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>217</v>
-      </c>
-      <c r="B82" t="s">
-        <v>84</v>
-      </c>
-      <c r="I82" t="b">
-        <v>0</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>218</v>
+        <v>278</v>
       </c>
       <c r="B83" t="s">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="I83" t="b">
         <v>0</v>
@@ -3870,10 +4031,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="B84" t="s">
-        <v>228</v>
+        <v>122</v>
       </c>
       <c r="I84" t="b">
         <v>0</v>
@@ -3881,10 +4042,16 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="B85" t="s">
-        <v>236</v>
+        <v>125</v>
+      </c>
+      <c r="D85">
+        <v>-9</v>
+      </c>
+      <c r="F85">
+        <v>0.2</v>
       </c>
       <c r="I85" t="b">
         <v>0</v>
@@ -3892,10 +4059,10 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>223</v>
+        <v>281</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>239</v>
       </c>
       <c r="I86" t="b">
         <v>0</v>
@@ -3903,23 +4070,386 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="B87" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="I87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>284</v>
+      </c>
+      <c r="B88" t="s">
+        <v>125</v>
+      </c>
+      <c r="I88" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="B89" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="I89" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>286</v>
+      </c>
+      <c r="B90" t="s">
+        <v>287</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>80000</v>
+      </c>
+      <c r="I90" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>290</v>
+      </c>
+      <c r="B93" t="s">
+        <v>291</v>
+      </c>
+      <c r="I93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>292</v>
+      </c>
+      <c r="B94" t="s">
+        <v>293</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="E94">
+        <v>80000</v>
+      </c>
+      <c r="I94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>294</v>
+      </c>
+      <c r="B95" t="s">
+        <v>98</v>
+      </c>
+      <c r="I95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" t="s">
+        <v>191</v>
+      </c>
+      <c r="E97">
+        <v>1350</v>
+      </c>
+      <c r="I97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>202</v>
+      </c>
+      <c r="B98" t="s">
+        <v>68</v>
+      </c>
+      <c r="I98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>208</v>
+      </c>
+      <c r="B99" t="s">
+        <v>79</v>
+      </c>
+      <c r="I99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" t="s">
+        <v>192</v>
+      </c>
+      <c r="I100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>176</v>
+      </c>
+      <c r="B101" t="s">
+        <v>122</v>
+      </c>
+      <c r="I101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" t="s">
+        <v>200</v>
+      </c>
+      <c r="I102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>177</v>
+      </c>
+      <c r="B103" t="s">
+        <v>201</v>
+      </c>
+      <c r="I103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>178</v>
+      </c>
+      <c r="B104" t="s">
+        <v>77</v>
+      </c>
+      <c r="I104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>179</v>
+      </c>
+      <c r="B105" t="s">
+        <v>79</v>
+      </c>
+      <c r="I105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>204</v>
+      </c>
+      <c r="B106" t="s">
+        <v>194</v>
+      </c>
+      <c r="E106">
+        <v>5000</v>
+      </c>
+      <c r="I106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>180</v>
+      </c>
+      <c r="B107" t="s">
+        <v>196</v>
+      </c>
+      <c r="I107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>181</v>
+      </c>
+      <c r="B108" t="s">
+        <v>195</v>
+      </c>
+      <c r="I108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>182</v>
+      </c>
+      <c r="B109" t="s">
+        <v>197</v>
+      </c>
+      <c r="I109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>183</v>
+      </c>
+      <c r="B111" t="s">
+        <v>195</v>
+      </c>
+      <c r="I111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>184</v>
+      </c>
+      <c r="B112" t="s">
+        <v>198</v>
+      </c>
+      <c r="I112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>185</v>
+      </c>
+      <c r="B113" t="s">
+        <v>199</v>
+      </c>
+      <c r="I113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>205</v>
+      </c>
+      <c r="B114" t="s">
+        <v>68</v>
+      </c>
+      <c r="I114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>186</v>
+      </c>
+      <c r="B115" t="s">
+        <v>207</v>
+      </c>
+      <c r="I115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>187</v>
+      </c>
+      <c r="B116" t="s">
+        <v>73</v>
+      </c>
+      <c r="I116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>188</v>
+      </c>
+      <c r="B117" t="s">
+        <v>68</v>
+      </c>
+      <c r="I117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>189</v>
+      </c>
+      <c r="B118" t="s">
+        <v>198</v>
+      </c>
+      <c r="I118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>190</v>
+      </c>
+      <c r="B119" t="s">
+        <v>206</v>
+      </c>
+      <c r="I119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>193</v>
+      </c>
+      <c r="B120" t="s">
+        <v>77</v>
+      </c>
+      <c r="I120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>210</v>
+      </c>
+      <c r="B121" t="s">
+        <v>211</v>
+      </c>
+      <c r="I121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>212</v>
+      </c>
+      <c r="B123" t="s">
+        <v>213</v>
+      </c>
+      <c r="I123" t="b">
         <v>1</v>
       </c>
     </row>
@@ -3947,32 +4477,32 @@
         <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="G1" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="H1" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -3980,15 +4510,15 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4002,12 +4532,12 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -4021,15 +4551,15 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -4040,10 +4570,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -4057,31 +4587,31 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EED4F5-4DEE-41D4-8601-34F58F3CA617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13C3DDB-BD91-4B51-93D5-E780C06EE1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="300">
   <si>
     <t>Primary</t>
   </si>
@@ -243,21 +243,12 @@
     <t>Nettlebane</t>
   </si>
   <si>
-    <t>Daedric_Dagger</t>
-  </si>
-  <si>
     <t>Ebony_Dagger</t>
   </si>
   <si>
     <t>Horksbane</t>
   </si>
   <si>
-    <t>Ebony_Greatsword</t>
-  </si>
-  <si>
-    <t>Daedric_Mace</t>
-  </si>
-  <si>
     <t>Glass_Sword</t>
   </si>
   <si>
@@ -318,9 +309,6 @@
     <t>HalldirsStaff</t>
   </si>
   <si>
-    <t>HarkonsSword</t>
-  </si>
-  <si>
     <t>HevnoraaksStaff</t>
   </si>
   <si>
@@ -831,9 +819,6 @@
     <t>RuefulAxe</t>
   </si>
   <si>
-    <t>Silver_Battleaxe</t>
-  </si>
-  <si>
     <t>RundisDagger</t>
   </si>
   <si>
@@ -882,15 +867,9 @@
     <t>Stormfang</t>
   </si>
   <si>
-    <t>TheLonghammer</t>
-  </si>
-  <si>
     <t>ThePaleBlade</t>
   </si>
   <si>
-    <t>TheWoodsmansFriend</t>
-  </si>
-  <si>
     <t>Iron_Battleaxe</t>
   </si>
   <si>
@@ -903,9 +882,6 @@
     <t>Volendrung</t>
   </si>
   <si>
-    <t>Daedric_Warhammer</t>
-  </si>
-  <si>
     <t>Wabbajack</t>
   </si>
   <si>
@@ -934,6 +910,36 @@
   </si>
   <si>
     <t>Glass_Greatsword</t>
+  </si>
+  <si>
+    <t>Ebony_Mace</t>
+  </si>
+  <si>
+    <t>Ebony_Warhammer</t>
+  </si>
+  <si>
+    <t>Ebony_DaiKatana</t>
+  </si>
+  <si>
+    <t>Quicksilver_Greatsword</t>
+  </si>
+  <si>
+    <t>AncientNord_Sword</t>
+  </si>
+  <si>
+    <t>HarkonsKatana</t>
+  </si>
+  <si>
+    <t>Longhammer</t>
+  </si>
+  <si>
+    <t>WoodsmansFriend</t>
+  </si>
+  <si>
+    <t>Stormbringer</t>
+  </si>
+  <si>
+    <t>Ebony_Katana</t>
   </si>
 </sst>
 </file>
@@ -1299,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DAB44D-10D6-48D9-84AA-13B1D653DD7B}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,10 +1322,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
@@ -1334,15 +1340,15 @@
         <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="I1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -1354,13 +1360,13 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1377,16 +1383,16 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1403,13 +1409,13 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1426,18 +1432,18 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="G5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -1449,18 +1455,18 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1468,7 +1474,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -1488,10 +1494,10 @@
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1508,16 +1514,16 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F10" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1534,19 +1540,19 @@
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1554,19 +1560,19 @@
         <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H12" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1586,15 +1592,15 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -1606,16 +1612,16 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1623,16 +1629,16 @@
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I15" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1640,21 +1646,21 @@
         <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -1666,13 +1672,13 @@
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H17" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1689,16 +1695,16 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1718,7 +1724,7 @@
         <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1738,7 +1744,7 @@
         <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1755,13 +1761,13 @@
         <v>0.2</v>
       </c>
       <c r="G21" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H21" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1778,16 +1784,16 @@
         <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H22" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1804,16 +1810,16 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F23" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H23" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1830,21 +1836,21 @@
         <v>1.3333333333333333</v>
       </c>
       <c r="E24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F24" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H24" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I24" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B25">
         <v>2</v>
@@ -1856,18 +1862,18 @@
         <v>4</v>
       </c>
       <c r="G25" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H25" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B26">
         <v>-1</v>
@@ -1879,18 +1885,18 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E26" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H26" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I26" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B27">
         <v>5</v>
@@ -1902,16 +1908,16 @@
         <v>40</v>
       </c>
       <c r="E27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F27" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H27" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="I27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1928,16 +1934,16 @@
         <v>6</v>
       </c>
       <c r="E28" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F28" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H28" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I28" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1954,21 +1960,21 @@
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H29" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I29" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1980,21 +1986,21 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
+        <v>139</v>
+      </c>
+      <c r="F30" t="s">
         <v>143</v>
       </c>
-      <c r="F30" t="s">
-        <v>147</v>
-      </c>
       <c r="H30" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I30" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -2006,18 +2012,18 @@
         <v>1</v>
       </c>
       <c r="G31" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H31" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I31" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2029,19 +2035,19 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F32" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G32" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H32" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I32" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2058,13 +2064,13 @@
         <v>7</v>
       </c>
       <c r="G33" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H33" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2074,11 +2080,14 @@
       <c r="B34">
         <v>3</v>
       </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
       <c r="G34" t="s">
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2098,18 +2107,18 @@
         <v>15</v>
       </c>
       <c r="F35" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H35" t="s">
         <v>15</v>
       </c>
       <c r="I35" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -2121,16 +2130,16 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F36" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H36" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I36" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2147,13 +2156,13 @@
         <v>0.25</v>
       </c>
       <c r="E37" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H37" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I37" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2177,22 +2186,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
         <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H1" t="s">
         <v>25</v>
@@ -2699,7 +2708,7 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3049,10 +3058,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E600040-C4D1-44DA-89A7-D165F82BA4A4}">
-  <dimension ref="A1:I123"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3067,33 +3076,33 @@
         <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -3101,15 +3110,15 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -3117,10 +3126,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -3128,10 +3137,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -3145,10 +3154,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -3162,10 +3171,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -3173,10 +3182,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -3184,16 +3193,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>5000</v>
@@ -3204,10 +3210,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>118</v>
+      </c>
+      <c r="E11">
+        <v>200</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -3218,7 +3227,7 @@
         <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -3226,16 +3235,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>-2</v>
+        <v>67</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -3246,7 +3249,7 @@
         <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -3257,7 +3260,10 @@
         <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>117</v>
+      </c>
+      <c r="E15">
+        <v>1000</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -3265,10 +3271,10 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B16" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -3276,10 +3282,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -3287,13 +3293,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E18">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -3301,10 +3307,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -3312,10 +3318,10 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B20" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -3323,10 +3329,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B21" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -3334,7 +3340,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -3342,7 +3348,7 @@
         <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -3353,16 +3359,13 @@
         <v>56</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
         <v>-1</v>
-      </c>
-      <c r="E24">
-        <v>5000</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -3375,8 +3378,8 @@
       <c r="B25" t="s">
         <v>73</v>
       </c>
-      <c r="C25">
-        <v>5</v>
+      <c r="D25">
+        <v>-5</v>
       </c>
       <c r="E25">
         <v>80000</v>
@@ -3390,13 +3393,13 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>5000</v>
@@ -3407,15 +3410,15 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B28" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -3426,7 +3429,7 @@
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -3437,7 +3440,7 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>292</v>
       </c>
       <c r="D30">
         <v>-3</v>
@@ -3451,10 +3454,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B31" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I31" t="b">
         <v>0</v>
@@ -3462,18 +3465,15 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
-      </c>
-      <c r="E33">
-        <v>5000</v>
+        <v>95</v>
       </c>
       <c r="I33" t="b">
         <v>0</v>
@@ -3481,10 +3481,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -3492,10 +3492,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -3503,15 +3503,15 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B37" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -3519,10 +3519,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B38" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -3530,10 +3530,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B39" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -3541,10 +3541,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B40" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E41">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>62</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
@@ -3577,10 +3577,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B43" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -3589,7 +3589,7 @@
         <v>5</v>
       </c>
       <c r="E43">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -3597,10 +3597,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -3608,30 +3608,15 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>295</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46">
-        <v>-8</v>
-      </c>
-      <c r="E46">
-        <v>5000</v>
-      </c>
-      <c r="F46">
-        <v>-0.125</v>
-      </c>
-      <c r="G46">
-        <v>0.05</v>
+        <v>299</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
@@ -3639,10 +3624,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>243</v>
+      </c>
+      <c r="B47" t="s">
         <v>247</v>
-      </c>
-      <c r="B47" t="s">
-        <v>251</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -3650,10 +3635,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B48" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -3661,15 +3646,15 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I50" t="b">
         <v>0</v>
@@ -3677,10 +3662,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="I51" t="b">
         <v>0</v>
@@ -3691,10 +3676,10 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E52">
-        <v>5000</v>
+        <v>2000</v>
       </c>
       <c r="I52" t="b">
         <v>0</v>
@@ -3705,16 +3690,16 @@
         <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D53">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E53">
-        <v>80000</v>
+        <v>50000</v>
       </c>
       <c r="I53" t="b">
         <v>1</v>
@@ -3722,27 +3707,30 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>296</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="D54">
-        <v>2</v>
-      </c>
-      <c r="E54">
-        <v>80000</v>
+        <v>-9</v>
+      </c>
+      <c r="F54">
+        <v>0.2</v>
       </c>
       <c r="I54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>290</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
       </c>
       <c r="E55">
         <v>80000</v>
@@ -3753,40 +3741,49 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56">
+        <v>80000</v>
+      </c>
+      <c r="I56" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>96</v>
-      </c>
-      <c r="B57" t="s">
-        <v>75</v>
-      </c>
-      <c r="I57" t="b">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>250</v>
+        <v>92</v>
       </c>
       <c r="B58" t="s">
-        <v>200</v>
+        <v>72</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>15000</v>
+      </c>
+      <c r="G58">
+        <v>0.2</v>
       </c>
       <c r="I58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>246</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
-      </c>
-      <c r="E59">
-        <v>5000</v>
+        <v>196</v>
       </c>
       <c r="I59" t="b">
         <v>0</v>
@@ -3794,30 +3791,30 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>-4</v>
-      </c>
-      <c r="E60">
-        <v>5000</v>
+        <v>67</v>
       </c>
       <c r="I60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>252</v>
+        <v>93</v>
       </c>
       <c r="B61" t="s">
-        <v>253</v>
+        <v>73</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>-4</v>
+      </c>
+      <c r="E61">
+        <v>15000</v>
       </c>
       <c r="I61" t="b">
         <v>1</v>
@@ -3825,21 +3822,21 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B62" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="I62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B63" t="s">
-        <v>229</v>
+        <v>288</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -3847,10 +3844,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B64" t="s">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="I64" t="b">
         <v>0</v>
@@ -3858,13 +3855,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
-      </c>
-      <c r="E65">
-        <v>450</v>
+        <v>253</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -3872,169 +3866,160 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>259</v>
+        <v>254</v>
+      </c>
+      <c r="B66" t="s">
+        <v>191</v>
+      </c>
+      <c r="E66">
+        <v>450</v>
+      </c>
+      <c r="I66" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>260</v>
-      </c>
-      <c r="B67" t="s">
-        <v>77</v>
-      </c>
-      <c r="E67">
-        <v>5000</v>
-      </c>
-      <c r="F67">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G67">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="I67" t="b">
-        <v>0</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B68" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68">
-        <v>-3</v>
+        <v>235</v>
+      </c>
+      <c r="E68">
+        <v>5000</v>
       </c>
       <c r="F68">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G68">
-        <v>7.4999999999999997E-2</v>
-      </c>
       <c r="I68" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B69" t="s">
-        <v>263</v>
-      </c>
-      <c r="C69">
-        <v>7</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-      <c r="E69">
-        <v>80000</v>
+        <v>294</v>
+      </c>
+      <c r="F69">
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B70" t="s">
-        <v>226</v>
+        <v>285</v>
+      </c>
+      <c r="D70">
+        <v>-5</v>
+      </c>
+      <c r="E70">
+        <v>80000</v>
       </c>
       <c r="I70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>265</v>
+        <v>259</v>
+      </c>
+      <c r="B71" t="s">
+        <v>222</v>
+      </c>
+      <c r="I71" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>267</v>
-      </c>
-      <c r="B73" t="s">
-        <v>268</v>
-      </c>
-      <c r="I73" t="b">
-        <v>0</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>269</v>
+        <v>262</v>
+      </c>
+      <c r="B74" t="s">
+        <v>263</v>
+      </c>
+      <c r="I74" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>271</v>
-      </c>
-      <c r="B76" t="s">
-        <v>76</v>
-      </c>
-      <c r="I76" t="b">
-        <v>0</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>272</v>
+        <v>266</v>
+      </c>
+      <c r="B77" t="s">
+        <v>73</v>
+      </c>
+      <c r="I77" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>278</v>
-      </c>
-      <c r="B83" t="s">
-        <v>295</v>
-      </c>
-      <c r="I83" t="b">
-        <v>0</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>287</v>
       </c>
       <c r="I84" t="b">
         <v>0</v>
@@ -4042,27 +4027,24 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="B85" t="s">
-        <v>125</v>
-      </c>
-      <c r="D85">
-        <v>-9</v>
-      </c>
-      <c r="F85">
-        <v>0.2</v>
+        <v>194</v>
+      </c>
+      <c r="E85">
+        <v>15000</v>
       </c>
       <c r="I85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B86" t="s">
-        <v>239</v>
+        <v>293</v>
       </c>
       <c r="I86" t="b">
         <v>0</v>
@@ -4070,10 +4052,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B87" t="s">
-        <v>283</v>
+        <v>235</v>
       </c>
       <c r="I87" t="b">
         <v>0</v>
@@ -4081,10 +4063,10 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B88" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="I88" t="b">
         <v>0</v>
@@ -4092,10 +4074,10 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B89" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I89" t="b">
         <v>0</v>
@@ -4103,13 +4085,13 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B90" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D90">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E90">
         <v>80000</v>
@@ -4120,20 +4102,20 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="B93" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="I93" t="b">
         <v>0</v>
@@ -4141,16 +4123,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B94" t="s">
-        <v>293</v>
-      </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-      <c r="E94">
-        <v>80000</v>
+        <v>276</v>
       </c>
       <c r="I94" t="b">
         <v>0</v>
@@ -4158,35 +4134,38 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>285</v>
+      </c>
+      <c r="E95">
+        <v>50000</v>
       </c>
       <c r="I95" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>174</v>
-      </c>
-      <c r="B97" t="s">
-        <v>191</v>
-      </c>
-      <c r="E97">
-        <v>1350</v>
-      </c>
-      <c r="I97" t="b">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>286</v>
+      </c>
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+      <c r="I96" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="B98" t="s">
-        <v>68</v>
+        <v>187</v>
+      </c>
+      <c r="E98">
+        <v>1350</v>
       </c>
       <c r="I98" t="b">
         <v>0</v>
@@ -4194,10 +4173,10 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B99" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="I99" t="b">
         <v>0</v>
@@ -4205,10 +4184,10 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>175</v>
+        <v>204</v>
       </c>
       <c r="B100" t="s">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="I100" t="b">
         <v>0</v>
@@ -4216,10 +4195,10 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B101" t="s">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="I101" t="b">
         <v>0</v>
@@ -4227,10 +4206,10 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="B102" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="I102" t="b">
         <v>0</v>
@@ -4238,10 +4217,10 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="B103" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="I103" t="b">
         <v>0</v>
@@ -4249,10 +4228,10 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B104" t="s">
-        <v>77</v>
+        <v>197</v>
       </c>
       <c r="I104" t="b">
         <v>0</v>
@@ -4260,10 +4239,10 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B105" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I105" t="b">
         <v>0</v>
@@ -4271,13 +4250,10 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
       <c r="B106" t="s">
-        <v>194</v>
-      </c>
-      <c r="E106">
-        <v>5000</v>
+        <v>76</v>
       </c>
       <c r="I106" t="b">
         <v>0</v>
@@ -4285,10 +4261,13 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="B107" t="s">
-        <v>196</v>
+        <v>190</v>
+      </c>
+      <c r="E107">
+        <v>5000</v>
       </c>
       <c r="I107" t="b">
         <v>0</v>
@@ -4296,10 +4275,10 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B108" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="I108" t="b">
         <v>0</v>
@@ -4307,10 +4286,10 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B109" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I109" t="b">
         <v>0</v>
@@ -4318,26 +4297,26 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>209</v>
+        <v>178</v>
+      </c>
+      <c r="B110" t="s">
+        <v>193</v>
+      </c>
+      <c r="I110" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>183</v>
-      </c>
-      <c r="B111" t="s">
-        <v>195</v>
-      </c>
-      <c r="I111" t="b">
-        <v>0</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B112" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="I112" t="b">
         <v>0</v>
@@ -4345,10 +4324,10 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B113" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I113" t="b">
         <v>0</v>
@@ -4356,10 +4335,10 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="B114" t="s">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="I114" t="b">
         <v>0</v>
@@ -4367,10 +4346,10 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="B115" t="s">
-        <v>207</v>
+        <v>67</v>
       </c>
       <c r="I115" t="b">
         <v>0</v>
@@ -4378,10 +4357,10 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B116" t="s">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="I116" t="b">
         <v>0</v>
@@ -4389,10 +4368,10 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B117" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I117" t="b">
         <v>0</v>
@@ -4400,10 +4379,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B118" t="s">
-        <v>198</v>
+        <v>67</v>
       </c>
       <c r="I118" t="b">
         <v>0</v>
@@ -4411,10 +4390,10 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B119" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="I119" t="b">
         <v>0</v>
@@ -4422,10 +4401,10 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B120" t="s">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="I120" t="b">
         <v>0</v>
@@ -4433,23 +4412,34 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="B121" t="s">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="I121" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>212</v>
-      </c>
-      <c r="B123" t="s">
-        <v>213</v>
-      </c>
-      <c r="I123" t="b">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>206</v>
+      </c>
+      <c r="B122" t="s">
+        <v>207</v>
+      </c>
+      <c r="I122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>208</v>
+      </c>
+      <c r="B124" t="s">
+        <v>209</v>
+      </c>
+      <c r="I124" t="b">
         <v>1</v>
       </c>
     </row>
@@ -4477,32 +4467,32 @@
         <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E1" t="s">
         <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="H1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
@@ -4510,15 +4500,15 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -4532,12 +4522,12 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -4551,15 +4541,15 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E9">
         <v>10</v>
@@ -4570,10 +4560,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -4587,31 +4577,31 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13C3DDB-BD91-4B51-93D5-E780C06EE1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15009F80-8CEA-45EA-851F-7EC75311B1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
@@ -3060,8 +3060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E600040-C4D1-44DA-89A7-D165F82BA4A4}">
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3429,7 +3429,7 @@
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>249</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>

--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15009F80-8CEA-45EA-851F-7EC75311B1CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226894CE-7DF5-4D47-966B-D3738D5A40F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -1305,8 +1305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DAB44D-10D6-48D9-84AA-13B1D653DD7B}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2035,10 +2035,10 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
+        <v>141</v>
+      </c>
+      <c r="F32" t="s">
         <v>138</v>
-      </c>
-      <c r="F32" t="s">
-        <v>141</v>
       </c>
       <c r="G32" t="s">
         <v>141</v>
@@ -2686,7 +2686,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2997,7 +2997,7 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -3014,7 +3014,7 @@
         <v>2</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3060,7 +3060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E600040-C4D1-44DA-89A7-D165F82BA4A4}">
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>

--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{226894CE-7DF5-4D47-966B-D3738D5A40F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1689537A-88B1-4C26-9C3A-BC491E569C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="302">
   <si>
     <t>Primary</t>
   </si>
@@ -720,9 +720,6 @@
     <t>Elven_Dagger</t>
   </si>
   <si>
-    <t>BowOfTheHunt</t>
-  </si>
-  <si>
     <t>BriarheartGeis</t>
   </si>
   <si>
@@ -940,6 +937,15 @@
   </si>
   <si>
     <t>Ebony_Katana</t>
+  </si>
+  <si>
+    <t>BowOfTheHawk</t>
+  </si>
+  <si>
+    <t>Quicksilver_Bow</t>
+  </si>
+  <si>
+    <t>Silver_Battleaxe</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DAB44D-10D6-48D9-84AA-13B1D653DD7B}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -3060,8 +3066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E600040-C4D1-44DA-89A7-D165F82BA4A4}">
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3318,21 +3324,21 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>226</v>
+        <v>299</v>
       </c>
       <c r="B20" t="s">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="I20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" t="s">
         <v>227</v>
-      </c>
-      <c r="B21" t="s">
-        <v>228</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -3415,7 +3421,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B28" t="s">
         <v>219</v>
@@ -3429,7 +3435,7 @@
         <v>59</v>
       </c>
       <c r="B29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -3440,7 +3446,7 @@
         <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D30">
         <v>-3</v>
@@ -3454,7 +3460,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s">
         <v>74</v>
@@ -3481,7 +3487,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s">
         <v>97</v>
@@ -3492,10 +3498,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B35" t="s">
         <v>232</v>
-      </c>
-      <c r="B35" t="s">
-        <v>233</v>
       </c>
       <c r="I35" t="b">
         <v>0</v>
@@ -3508,10 +3514,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" t="s">
         <v>234</v>
-      </c>
-      <c r="B37" t="s">
-        <v>235</v>
       </c>
       <c r="I37" t="b">
         <v>0</v>
@@ -3519,10 +3525,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>235</v>
+      </c>
+      <c r="B38" t="s">
         <v>236</v>
-      </c>
-      <c r="B38" t="s">
-        <v>237</v>
       </c>
       <c r="I38" t="b">
         <v>0</v>
@@ -3530,10 +3536,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B39" t="s">
         <v>238</v>
-      </c>
-      <c r="B39" t="s">
-        <v>239</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -3541,10 +3547,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>239</v>
+      </c>
+      <c r="B40" t="s">
         <v>240</v>
-      </c>
-      <c r="B40" t="s">
-        <v>241</v>
       </c>
       <c r="I40" t="b">
         <v>0</v>
@@ -3597,10 +3603,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -3613,10 +3619,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I46" t="b">
         <v>1</v>
@@ -3624,10 +3630,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B47" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I47" t="b">
         <v>0</v>
@@ -3635,7 +3641,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B48" t="s">
         <v>187</v>
@@ -3651,7 +3657,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B50" t="s">
         <v>191</v>
@@ -3707,7 +3713,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B54" t="s">
         <v>121</v>
@@ -3727,7 +3733,7 @@
         <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -3780,7 +3786,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B59" t="s">
         <v>196</v>
@@ -3822,10 +3828,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>247</v>
+      </c>
+      <c r="B62" t="s">
         <v>248</v>
-      </c>
-      <c r="B62" t="s">
-        <v>249</v>
       </c>
       <c r="I62" t="b">
         <v>1</v>
@@ -3833,10 +3839,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B63" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I63" t="b">
         <v>0</v>
@@ -3844,7 +3850,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B64" t="s">
         <v>225</v>
@@ -3855,10 +3861,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>251</v>
+      </c>
+      <c r="B65" t="s">
         <v>252</v>
-      </c>
-      <c r="B65" t="s">
-        <v>253</v>
       </c>
       <c r="I65" t="b">
         <v>0</v>
@@ -3866,7 +3872,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B66" t="s">
         <v>191</v>
@@ -3880,15 +3886,15 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B68" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E68">
         <v>5000</v>
@@ -3902,10 +3908,10 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B69" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F69">
         <v>7.4999999999999997E-2</v>
@@ -3916,13 +3922,13 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B70" t="s">
-        <v>285</v>
-      </c>
-      <c r="D70">
-        <v>-5</v>
+        <v>301</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
       </c>
       <c r="E70">
         <v>80000</v>
@@ -3933,7 +3939,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B71" t="s">
         <v>222</v>
@@ -3944,20 +3950,20 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>261</v>
+      </c>
+      <c r="B74" t="s">
         <v>262</v>
-      </c>
-      <c r="B74" t="s">
-        <v>263</v>
       </c>
       <c r="I74" t="b">
         <v>0</v>
@@ -3965,17 +3971,17 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B77" t="s">
         <v>73</v>
@@ -3986,40 +3992,40 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B84" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I84" t="b">
         <v>0</v>
@@ -4027,7 +4033,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B85" t="s">
         <v>194</v>
@@ -4041,10 +4047,10 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B86" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I86" t="b">
         <v>0</v>
@@ -4052,10 +4058,10 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B87" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I87" t="b">
         <v>0</v>
@@ -4063,7 +4069,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B88" t="s">
         <v>121</v>
@@ -4074,7 +4080,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B89" t="s">
         <v>222</v>
@@ -4085,10 +4091,10 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B90" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D90">
         <v>7</v>
@@ -4102,20 +4108,20 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>281</v>
+      </c>
+      <c r="B93" t="s">
         <v>282</v>
-      </c>
-      <c r="B93" t="s">
-        <v>283</v>
       </c>
       <c r="I93" t="b">
         <v>0</v>
@@ -4123,10 +4129,10 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B94" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I94" t="b">
         <v>0</v>
@@ -4134,10 +4140,10 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>283</v>
+      </c>
+      <c r="B95" t="s">
         <v>284</v>
-      </c>
-      <c r="B95" t="s">
-        <v>285</v>
       </c>
       <c r="E95">
         <v>50000</v>
@@ -4148,7 +4154,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B96" t="s">
         <v>94</v>

--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1689537A-88B1-4C26-9C3A-BC491E569C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C187DA60-CB3C-45B0-AF4D-8BEC55B9A2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="303">
   <si>
     <t>Primary</t>
   </si>
@@ -946,6 +946,9 @@
   </si>
   <si>
     <t>Silver_Battleaxe</t>
+  </si>
+  <si>
+    <t>Soulreaping</t>
   </si>
 </sst>
 </file>
@@ -1309,10 +1312,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DAB44D-10D6-48D9-84AA-13B1D653DD7B}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,93 +2084,116 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
-      <c r="D34">
-        <v>1</v>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.66666666666666663</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>138</v>
+      </c>
+      <c r="H34" t="s">
+        <v>138</v>
       </c>
       <c r="I34" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B35">
-        <v>5</v>
-      </c>
-      <c r="C35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>40</v>
-      </c>
-      <c r="E35" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" t="s">
-        <v>138</v>
-      </c>
-      <c r="H35" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" t="s">
         <v>138</v>
       </c>
-      <c r="F36" t="s">
-        <v>143</v>
-      </c>
       <c r="H36" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>138</v>
+      </c>
+      <c r="F37" t="s">
+        <v>143</v>
+      </c>
+      <c r="H37" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>16</v>
       </c>
-      <c r="B37">
+      <c r="B38">
         <v>-6</v>
       </c>
-      <c r="C37">
+      <c r="C38">
         <v>-7</v>
       </c>
-      <c r="D37">
+      <c r="D38">
         <v>0.25</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>150</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H38" t="s">
         <v>212</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I38" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3066,7 +3092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E600040-C4D1-44DA-89A7-D165F82BA4A4}">
   <dimension ref="A1:I124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+    <sheetView topLeftCell="A51" workbookViewId="0">
       <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>

--- a/tools/xEdit Scripts/patcher_data/Weapon.xlsx
+++ b/tools/xEdit Scripts/patcher_data/Weapon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Skyrim Tools\Mod Organizer SSE\mods\requiem\tools\xEdit Scripts\patcher_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C187DA60-CB3C-45B0-AF4D-8BEC55B9A2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02761804-F28A-46EF-B577-0ABE0D889422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C480242-CFA6-464E-B2D0-26CF905FE2BF}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="304">
   <si>
     <t>Primary</t>
   </si>
@@ -949,6 +949,9 @@
   </si>
   <si>
     <t>Soulreaping</t>
+  </si>
+  <si>
+    <t>Dremora</t>
   </si>
 </sst>
 </file>
@@ -1312,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8DAB44D-10D6-48D9-84AA-13B1D653DD7B}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,33 +1612,30 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>151</v>
+        <v>303</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" t="s">
-        <v>143</v>
-      </c>
-      <c r="H14" t="s">
-        <v>142</v>
-      </c>
-      <c r="I14" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>151</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
       </c>
       <c r="E15" t="s">
         <v>142</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
         <v>142</v>
@@ -1669,85 +1669,82 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>152</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>140</v>
+        <v>142</v>
+      </c>
+      <c r="F17" t="s">
+        <v>143</v>
       </c>
       <c r="H17" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="I17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>147</v>
-      </c>
-      <c r="F18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H18" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="I18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D19">
-        <v>0.25</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>147</v>
+      </c>
+      <c r="F19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" t="s">
+        <v>147</v>
       </c>
       <c r="I19" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G20" t="s">
         <v>20</v>
@@ -1758,22 +1755,19 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="G21" t="s">
-        <v>211</v>
-      </c>
-      <c r="H21" t="s">
-        <v>211</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
         <v>100</v>
@@ -1781,59 +1775,56 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D22">
-        <v>25</v>
-      </c>
-      <c r="E22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" t="s">
-        <v>147</v>
+        <v>0.2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>211</v>
       </c>
       <c r="H22" t="s">
-        <v>148</v>
+        <v>211</v>
       </c>
       <c r="I22" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E23" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F23" t="s">
         <v>147</v>
       </c>
       <c r="H23" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="I23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1841,198 +1832,201 @@
       <c r="C24">
         <v>0</v>
       </c>
-      <c r="D24" s="1">
-        <v>1.3333333333333333</v>
+      <c r="D24">
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F24" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H24" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="I24" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="G25" t="s">
-        <v>142</v>
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" t="s">
+        <v>143</v>
       </c>
       <c r="H25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="D26">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E26" t="s">
-        <v>143</v>
+        <v>4</v>
+      </c>
+      <c r="G26" t="s">
+        <v>142</v>
       </c>
       <c r="H26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I26" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D27">
-        <v>40</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E27" t="s">
-        <v>145</v>
-      </c>
-      <c r="F27" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I27" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="F28" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="H28" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="I28" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>3</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F29" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="H29" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I29" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="F30" t="s">
         <v>143</v>
       </c>
       <c r="H30" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="I30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="s">
-        <v>138</v>
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F31" t="s">
+        <v>143</v>
       </c>
       <c r="H31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I31" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -2041,19 +2035,13 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" t="s">
-        <v>141</v>
-      </c>
-      <c r="F32" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
         <v>138</v>
       </c>
-      <c r="G32" t="s">
-        <v>141</v>
-      </c>
       <c r="H32" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="I32" t="s">
         <v>100</v>
@@ -2061,22 +2049,28 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" t="s">
+        <v>138</v>
       </c>
       <c r="G33" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H33" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="I33" t="s">
         <v>100</v>
@@ -2084,16 +2078,16 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>302</v>
+        <v>14</v>
       </c>
       <c r="B34">
         <v>3</v>
       </c>
       <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" s="1">
-        <v>0.66666666666666663</v>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
       </c>
       <c r="G34" t="s">
         <v>138</v>
@@ -2107,93 +2101,116 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
+        <v>302</v>
       </c>
       <c r="B35">
         <v>3</v>
       </c>
-      <c r="D35">
-        <v>1</v>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.66666666666666663</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>138</v>
+      </c>
+      <c r="H35" t="s">
+        <v>138</v>
       </c>
       <c r="I35" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>5</v>
-      </c>
-      <c r="C36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>40</v>
-      </c>
-      <c r="E36" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" t="s">
-        <v>138</v>
-      </c>
-      <c r="H36" t="s">
-        <v>15</v>
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" t="s">
         <v>138</v>
       </c>
-      <c r="F37" t="s">
-        <v>143</v>
-      </c>
       <c r="H37" t="s">
-        <v>138</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" t="s">
+        <v>143</v>
+      </c>
+      <c r="H38" t="s">
+        <v>138</v>
+      </c>
+      <c r="I38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>16</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>-6</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>-7</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>0.25</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>150</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H39" t="s">
         <v>212</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I39" t="s">
         <v>100</v>
       </c>
     </row>
